--- a/notebook/metrics/resultados_predicciones.xlsx
+++ b/notebook/metrics/resultados_predicciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\survey-xai-app\notebook\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1EAF35-1462-4B04-9760-F19A88CFAD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69646848-5069-46A6-B49E-06865D207F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_selection" sheetId="1" r:id="rId1"/>
@@ -1120,8 +1120,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,18 +1147,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,6 +1168,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>440070</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC4A41A-CA86-872C-0A68-71F51CD08288}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16297275" y="0"/>
+          <a:ext cx="7726695" cy="5129794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1795,19 +1844,19 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="2">
         <v>49</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3">
         <v>24</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="18" t="s">
         <v>14</v>
       </c>
       <c r="U1" s="4">
@@ -6353,17 +6402,17 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="K1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="K1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -6386,78 +6435,78 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="24" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="6" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="K3" s="21" t="e" vm="2">
+      <c r="K3" s="15" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24" t="s">
         <v>129</v>
       </c>
       <c r="C5" s="6" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="K5" s="21" t="e" vm="4">
+      <c r="K5" s="15" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="24" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="6" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="K7" s="21" t="e" vm="6">
+      <c r="K7" s="15" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="9" t="e" vm="7">
@@ -6466,24 +6515,24 @@
       <c r="D9" s="9" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="K9" s="21" t="e" vm="9">
+      <c r="K9" s="15" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="L9" s="21" t="e" vm="10">
+      <c r="L9" s="15" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="9" t="e" vm="11">
@@ -6492,24 +6541,24 @@
       <c r="D11" s="9" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="K11" s="21" t="e" vm="13">
+      <c r="K11" s="15" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="L11" s="21" t="e" vm="14">
+      <c r="L11" s="15" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
         <v>130</v>
       </c>
       <c r="C13" s="9" t="e" vm="15">
@@ -6518,26 +6567,26 @@
       <c r="D13" s="9" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="K13" s="21" t="e" vm="17">
+      <c r="K13" s="15" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="L13" s="21" t="e" vm="18">
+      <c r="L13" s="15" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="24" t="s">
         <v>128</v>
       </c>
       <c r="C15" s="10" t="e" vm="19">
@@ -6546,24 +6595,24 @@
       <c r="D15" s="10" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="K15" s="21" t="e" vm="21">
+      <c r="K15" s="15" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="L15" s="21" t="e" vm="22">
+      <c r="L15" s="15" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="19" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24" t="s">
         <v>129</v>
       </c>
       <c r="C17" s="10" t="e" vm="23">
@@ -6572,24 +6621,24 @@
       <c r="D17" s="10" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="K17" s="21" t="e" vm="25">
+      <c r="K17" s="15" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="L17" s="21" t="e" vm="26">
+      <c r="L17" s="15" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="24" t="s">
         <v>130</v>
       </c>
       <c r="C19" s="10" t="e" vm="27">
@@ -6598,40 +6647,40 @@
       <c r="D19" s="10" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="K19" s="21" t="e" vm="29">
+      <c r="K19" s="15" t="e" vm="29">
         <v>#VALUE!</v>
       </c>
-      <c r="L19" s="21" t="e" vm="30">
+      <c r="L19" s="15" t="e" vm="30">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="e" vm="31">
         <v>#VALUE!</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="K21" s="21" t="e" vm="32">
+      <c r="K21" s="15" t="e" vm="32">
         <v>#VALUE!</v>
       </c>
-      <c r="L21" s="21"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="11" t="e" vm="33">
         <v>#VALUE!</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="K22" s="21" t="e" vm="34">
+      <c r="K22" s="15" t="e" vm="34">
         <v>#VALUE!</v>
       </c>
-      <c r="L22" s="21"/>
+      <c r="L22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6659,7 +6708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC8C4B-554A-4BB4-A579-582CC05CAB9D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -6697,11 +6746,11 @@
       <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
@@ -6716,9 +6765,9 @@
       <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -6733,9 +6782,9 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -11943,8 +11992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DF9A52-7094-4721-82F9-4DC0B913695D}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13275,6 +13324,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/notebook/metrics/resultados_predicciones.xlsx
+++ b/notebook/metrics/resultados_predicciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\survey-xai-app\notebook\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69646848-5069-46A6-B49E-06865D207F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690FE0B-BE1A-4CBE-A98B-E1AFE000BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_selection" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="User_1" sheetId="14" r:id="rId5"/>
     <sheet name="User_2" sheetId="16" r:id="rId6"/>
     <sheet name="User_3" sheetId="15" r:id="rId7"/>
-    <sheet name="report_generated" sheetId="11" r:id="rId8"/>
-    <sheet name="report_expected" sheetId="13" r:id="rId9"/>
-    <sheet name="charts" sheetId="12" r:id="rId10"/>
-    <sheet name="grafica_categorias" sheetId="3" r:id="rId11"/>
-    <sheet name="test_4" sheetId="10" r:id="rId12"/>
-    <sheet name="ids_rules" sheetId="2" r:id="rId13"/>
-    <sheet name="decision_tree_rules_sklearn" sheetId="4" r:id="rId14"/>
-    <sheet name="decision_tree_rules_interpretml" sheetId="5" r:id="rId15"/>
+    <sheet name="glossary" sheetId="17" r:id="rId8"/>
+    <sheet name="report_generated" sheetId="11" r:id="rId9"/>
+    <sheet name="report_expected" sheetId="13" r:id="rId10"/>
+    <sheet name="charts" sheetId="12" r:id="rId11"/>
+    <sheet name="grafica_categorias" sheetId="3" r:id="rId12"/>
+    <sheet name="test_4" sheetId="10" r:id="rId13"/>
+    <sheet name="ids_rules" sheetId="2" r:id="rId14"/>
+    <sheet name="decision_tree_rules_sklearn" sheetId="4" r:id="rId15"/>
+    <sheet name="decision_tree_rules_interpretml" sheetId="5" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">observation_selection!$L$1:$L$120</definedName>
@@ -437,7 +438,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="180">
   <si>
     <t>id</t>
   </si>
@@ -860,6 +861,123 @@
   </si>
   <si>
     <t>expected_charts_final_observations</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>normalized_value</t>
+  </si>
+  <si>
+    <t>original_value</t>
+  </si>
+  <si>
+    <t>243afd66-9eae-4396-a355-fc77886fc28c</t>
+  </si>
+  <si>
+    <t>5e76796d-8605-4cc8-9dce-ce25a5fe81ef</t>
+  </si>
+  <si>
+    <t>e90a4052-4e16-4d85-ad1b-5ef227c35538</t>
+  </si>
+  <si>
+    <t>Basándote en las reglas proporcionadas, selecciona si la predicción correcta para esta observación es 'Aprobado' o 'Reprobado'.</t>
+  </si>
+  <si>
+    <t>Basándote en el grafo global y las reglas resaltadas, selecciona si la predicción del modelo para esta observación es 'Aprobado' o 'Reprobado'.</t>
+  </si>
+  <si>
+    <t>Basándote en el grafo local y las reglas resaltadas, selecciona si la predicción del modelo para esta observación es 'Aprobado' o 'Reprobado'.</t>
+  </si>
+  <si>
+    <t>Basándote en las reglas proporcionadas, selecciona si la predicción correcta para esta observación es 'Aprobado' o 'Reprobado'. Si al analizar las reglas no encuentras una respuesta evidente, considera que esto puede reflejar ambigüedad en las reglas.</t>
+  </si>
+  <si>
+    <t>Basándote en el grafo global y las reglas resaltadas, selecciona si la predicción del modelo para esta observación es 'Aprobado' o 'Reprobado'. Si el grafo y las reglas no te permiten tomar una decisión clara, considera que esto puede reflejar ambigüedad en la interpretación global.</t>
+  </si>
+  <si>
+    <t>Basándote en el grafo local y las reglas resaltadas, selecciona si la predicción del modelo para esta observación es 'Aprobado' o 'Reprobado'. Si al analizar las reglas y el grafo local no encuentras una justificación clara, considera que esto puede reflejar ambigüedad en la interpretación local.</t>
+  </si>
+  <si>
+    <t>Basándote en la regla resaltada y los valores de la observación, califica si la predicción del modelo es adecuada según las reglas proporcionadas. Si encuentras inconsistencias entre la predicción y las reglas, considera esto al tomar tu decisión.</t>
+  </si>
+  <si>
+    <t>Basándote en el grafo global y la regla resaltada, califica si la predicción del modelo para esta observación es adecuada. Si encuentras inconsistencias entre la predicción y la regla, considera esto al tomar tu decisión.</t>
+  </si>
+  <si>
+    <t>Basándote en el grafo local y la regla resaltada, califica si la predicción del modelo para esta observación es adecuada. Si encuentras inconsistencias entre la predicción y la regla, considera esto al tomar tu decisión.</t>
+  </si>
+  <si>
+    <t>¿Cuál de los siguientes grafos encontraste más útil para entender el funcionamiento del modelo?</t>
+  </si>
+  <si>
+    <t>¿Qué modelo te facilitó comprender la predicción y analizar posibles errores?</t>
+  </si>
+  <si>
+    <t>¿Crees que la visualización del grafo y sus reglas debería siempre acompañar las predicciones para mejorar la comprensión?</t>
+  </si>
+  <si>
+    <t>Exactitud</t>
+  </si>
+  <si>
+    <t>Ambigüedad</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Preferencias de Visualización</t>
+  </si>
+  <si>
+    <t>Pregunta Descriptiva</t>
+  </si>
+  <si>
+    <t>Reglas</t>
+  </si>
+  <si>
+    <t>Grado Global</t>
+  </si>
+  <si>
+    <t>Grado Local</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>¿Qué tan seguro(a) estás de tu respuesta?</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Correcto</t>
+  </si>
+  <si>
+    <t>Incorrecto</t>
+  </si>
+  <si>
+    <t>Árbol de decisión (InterpretML)</t>
+  </si>
+  <si>
+    <t>Conjuntos de Decisiones interpretables (IDS)</t>
+  </si>
+  <si>
+    <t>Respuesta en texto libre</t>
+  </si>
+  <si>
+    <t>user_id_1</t>
+  </si>
+  <si>
+    <t>user_id_2</t>
+  </si>
+  <si>
+    <t>user_id_3</t>
   </si>
 </sst>
 </file>
@@ -1788,7 +1906,7 @@
   <dimension ref="A1:U120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+      <selection sqref="A1:U116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1981,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1901,7 +2019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1939,7 +2057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1977,7 +2095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2015,7 +2133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2053,7 +2171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2091,7 +2209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2167,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2205,7 +2323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2243,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2319,7 +2437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2357,7 +2475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2395,7 +2513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2433,7 +2551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2471,7 +2589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2509,7 +2627,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2547,7 +2665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2585,7 +2703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2623,7 +2741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2661,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2699,7 +2817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2737,7 +2855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2775,7 +2893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2851,7 +2969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2889,7 +3007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2927,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2965,7 +3083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3003,7 +3121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3041,7 +3159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3079,7 +3197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3117,7 +3235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3155,7 +3273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3193,7 +3311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3231,7 +3349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3269,7 +3387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3307,7 +3425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3345,7 +3463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3383,7 +3501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3459,7 +3577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3497,7 +3615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3535,7 +3653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3573,7 +3691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3611,7 +3729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3649,7 +3767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3687,7 +3805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3725,7 +3843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3763,7 +3881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3839,7 +3957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3877,7 +3995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3915,7 +4033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3953,7 +4071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3991,7 +4109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4029,7 +4147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4067,7 +4185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4105,7 +4223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4143,7 +4261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4181,7 +4299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4257,7 +4375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4295,7 +4413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4333,7 +4451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4371,7 +4489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4409,7 +4527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4447,7 +4565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4485,7 +4603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4523,7 +4641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4561,7 +4679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4599,7 +4717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4637,7 +4755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4675,7 +4793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4713,7 +4831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4751,7 +4869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4789,7 +4907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4827,7 +4945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4865,7 +4983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4903,7 +5021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4941,7 +5059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4979,7 +5097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5017,7 +5135,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5055,7 +5173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5093,7 +5211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5131,7 +5249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5169,7 +5287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5207,7 +5325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5245,7 +5363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5283,7 +5401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5321,7 +5439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5359,7 +5477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5397,7 +5515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5435,7 +5553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5473,7 +5591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5511,7 +5629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5549,7 +5667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5587,7 +5705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5625,7 +5743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5663,7 +5781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5701,7 +5819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5739,7 +5857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5777,7 +5895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5815,7 +5933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5891,7 +6009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5929,7 +6047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5967,7 +6085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6005,7 +6123,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6043,7 +6161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6081,7 +6199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6119,7 +6237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6233,7 +6351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6271,7 +6389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6309,7 +6427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6347,7 +6465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6392,11 +6510,1729 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7FDA74-D9E0-4DB0-9EC2-A4173095377A}">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <f>COUNTIF(User_1!N2,1) + COUNTIF(User_2!N2,1) + COUNTIF(User_3!N2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="8">
+        <f>COUNTIF(User_1!N2,0) + COUNTIF(User_2!N2,0) + COUNTIF(User_3!N2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <f>SUM((User_1!N2=1)*(User_1!P2=3)) + SUM((User_2!N2=1)*(User_2!P2=3)) + SUM((User_3!N2=1)*(User_3!P2=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <f>SUM((User_1!N2=1)*(User_1!P2=2)) + SUM((User_2!N2=1)*(User_2!P2=2)) + SUM((User_3!N2=1)*(User_3!P2=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <f>SUM((User_1!N2=1)*(User_1!P2=1)) + SUM((User_2!N2=1)*(User_2!P2=1)) + SUM((User_3!N2=1)*(User_3!P2=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>SUM((User_1!N2=0)*(User_1!P2=3)) + SUM((User_2!N2=0)*(User_2!P2=3)) + SUM((User_3!N2=0)*(User_3!P2=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <f>SUM((User_1!N2=0)*(User_1!P2=2)) + SUM((User_2!N2=0)*(User_2!P2=2)) + SUM((User_3!N2=0)*(User_3!P2=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f>SUM((User_1!N2=0)*(User_1!P2=1)) + SUM((User_2!N2=0)*(User_2!P2=1)) + SUM((User_3!N2=0)*(User_3!P2=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <f>SUM((User_1!N2=2)*(User_1!P2=3)) + SUM((User_2!N2=2)*(User_2!P2=3)) + SUM((User_3!N2=2)*(User_3!P2=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <f>SUM((User_1!N2=2)*(User_1!P2=2)) + SUM((User_2!N2=2)*(User_2!P2=2)) + SUM((User_3!N2=2)*(User_3!P2=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <f>SUM((User_1!N2=2)*(User_1!P2=1)) + SUM((User_2!N2=2)*(User_2!P2=1)) + SUM((User_3!N2=2)*(User_3!P2=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <f>SUM((User_1!N2=3)*(User_1!P2=3)) + SUM((User_2!N2=3)*(User_2!P2=3)) + SUM((User_3!N2=3)*(User_3!P2=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <f>SUM((User_1!N2=3)*(User_1!P2=2)) + SUM((User_2!N2=3)*(User_2!P2=2)) + SUM((User_3!N2=3)*(User_3!P2=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <f>SUM((User_1!N2=3)*(User_1!P2=1)) + SUM((User_2!N2=3)*(User_2!P2=1)) + SUM((User_3!N2=3)*(User_3!P2=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <f>COUNTIF(User_1!N2,2) + COUNTIF(User_2!N2,2) + COUNTIF(User_3!N2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>COUNTIF(User_1!N2,3) + COUNTIF(User_2!N2,3) + COUNTIF(User_3!N2,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <f>COUNTIF(User_1!N2,5) + COUNTIF(User_2!N2,5) + COUNTIF(User_3!N2,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="6">
+        <f>COUNTIF(User_1!N2,4) + COUNTIF(User_2!N2,4) + COUNTIF(User_3!N2,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>AVERAGE(User_1!Q2, User_2!Q2, User_3!Q2)</f>
+        <v>21.110333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <f>COUNTIF(User_1!N3,1) + COUNTIF(User_2!N3,1) + COUNTIF(User_3!N3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <f>COUNTIF(User_1!N3,0) + COUNTIF(User_2!N3,0) + COUNTIF(User_3!N3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <f>SUM((User_1!N3=1)*(User_1!P3=3)) + SUM((User_2!N3=1)*(User_2!P3=3)) + SUM((User_3!N3=1)*(User_3!P3=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <f>SUM((User_1!N3=1)*(User_1!P3=2)) + SUM((User_2!N3=1)*(User_2!P3=2)) + SUM((User_3!N3=1)*(User_3!P3=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <f>SUM((User_1!N3=1)*(User_1!P3=1)) + SUM((User_2!N3=1)*(User_2!P3=1)) + SUM((User_3!N3=1)*(User_3!P3=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>SUM((User_1!N3=0)*(User_1!P3=3)) + SUM((User_2!N3=0)*(User_2!P3=3)) + SUM((User_3!N3=0)*(User_3!P3=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <f>SUM((User_1!N3=0)*(User_1!P3=2)) + SUM((User_2!N3=0)*(User_2!P3=2)) + SUM((User_3!N3=0)*(User_3!P3=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM((User_1!N3=0)*(User_1!P3=1)) + SUM((User_2!N3=0)*(User_2!P3=1)) + SUM((User_3!N3=0)*(User_3!P3=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <f>SUM((User_1!N3=2)*(User_1!P3=3)) + SUM((User_2!N3=2)*(User_2!P3=3)) + SUM((User_3!N3=2)*(User_3!P3=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <f>SUM((User_1!N3=2)*(User_1!P3=2)) + SUM((User_2!N3=2)*(User_2!P3=2)) + SUM((User_3!N3=2)*(User_3!P3=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <f>SUM((User_1!N3=2)*(User_1!P3=1)) + SUM((User_2!N3=2)*(User_2!P3=1)) + SUM((User_3!N3=2)*(User_3!P3=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <f>SUM((User_1!N3=3)*(User_1!P3=3)) + SUM((User_2!N3=3)*(User_2!P3=3)) + SUM((User_3!N3=3)*(User_3!P3=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <f>SUM((User_1!N3=3)*(User_1!P3=2)) + SUM((User_2!N3=3)*(User_2!P3=2)) + SUM((User_3!N3=3)*(User_3!P3=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <f>SUM((User_1!N3=3)*(User_1!P3=1)) + SUM((User_2!N3=3)*(User_2!P3=1)) + SUM((User_3!N3=3)*(User_3!P3=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <f>COUNTIF(User_1!N3,2) + COUNTIF(User_2!N3,2) + COUNTIF(User_3!N3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <f>COUNTIF(User_1!N3,3) + COUNTIF(User_2!N3,3) + COUNTIF(User_3!N3,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6">
+        <f>COUNTIF(User_1!N3,5) + COUNTIF(User_2!N3,5) + COUNTIF(User_3!N3,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6">
+        <f>COUNTIF(User_1!N3,4) + COUNTIF(User_2!N3,4) + COUNTIF(User_3!N3,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>AVERAGE(User_1!Q3, User_2!Q3, User_3!Q3)</f>
+        <v>5.6836666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f>COUNTIF(User_1!N4,1) + COUNTIF(User_2!N4,1) + COUNTIF(User_3!N4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <f>COUNTIF(User_1!N4,0) + COUNTIF(User_2!N4,0) + COUNTIF(User_3!N4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <f>SUM((User_1!N4=1)*(User_1!P4=3)) + SUM((User_2!N4=1)*(User_2!P4=3)) + SUM((User_3!N4=1)*(User_3!P4=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <f>SUM((User_1!N4=1)*(User_1!P4=2)) + SUM((User_2!N4=1)*(User_2!P4=2)) + SUM((User_3!N4=1)*(User_3!P4=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <f>SUM((User_1!N4=1)*(User_1!P4=1)) + SUM((User_2!N4=1)*(User_2!P4=1)) + SUM((User_3!N4=1)*(User_3!P4=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM((User_1!N4=0)*(User_1!P4=3)) + SUM((User_2!N4=0)*(User_2!P4=3)) + SUM((User_3!N4=0)*(User_3!P4=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f>SUM((User_1!N4=0)*(User_1!P4=2)) + SUM((User_2!N4=0)*(User_2!P4=2)) + SUM((User_3!N4=0)*(User_3!P4=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <f>SUM((User_1!N4=0)*(User_1!P4=1)) + SUM((User_2!N4=0)*(User_2!P4=1)) + SUM((User_3!N4=0)*(User_3!P4=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <f>SUM((User_1!N4=2)*(User_1!P4=3)) + SUM((User_2!N4=2)*(User_2!P4=3)) + SUM((User_3!N4=2)*(User_3!P4=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <f>SUM((User_1!N4=2)*(User_1!P4=2)) + SUM((User_2!N4=2)*(User_2!P4=2)) + SUM((User_3!N4=2)*(User_3!P4=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <f>SUM((User_1!N4=2)*(User_1!P4=1)) + SUM((User_2!N4=2)*(User_2!P4=1)) + SUM((User_3!N4=2)*(User_3!P4=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f>SUM((User_1!N4=3)*(User_1!P4=3)) + SUM((User_2!N4=3)*(User_2!P4=3)) + SUM((User_3!N4=3)*(User_3!P4=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <f>SUM((User_1!N4=3)*(User_1!P4=2)) + SUM((User_2!N4=3)*(User_2!P4=2)) + SUM((User_3!N4=3)*(User_3!P4=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <f>SUM((User_1!N4=3)*(User_1!P4=1)) + SUM((User_2!N4=3)*(User_2!P4=1)) + SUM((User_3!N4=3)*(User_3!P4=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <f>COUNTIF(User_1!N4,2) + COUNTIF(User_2!N4,2) + COUNTIF(User_3!N4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>COUNTIF(User_1!N4,3) + COUNTIF(User_2!N4,3) + COUNTIF(User_3!N4,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <f>COUNTIF(User_1!N4,5) + COUNTIF(User_2!N4,5) + COUNTIF(User_3!N4,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <f>COUNTIF(User_1!N4,4) + COUNTIF(User_2!N4,4) + COUNTIF(User_3!N4,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>AVERAGE(User_1!Q4, User_2!Q4, User_3!Q4)</f>
+        <v>4.091333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <f>COUNTIF(User_1!N5,1) + COUNTIF(User_2!N5,1) + COUNTIF(User_3!N5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <f>COUNTIF(User_1!N5,0) + COUNTIF(User_2!N5,0) + COUNTIF(User_3!N5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="6">
+        <f>SUM((User_1!N5=1)*(User_1!P5=3)) + SUM((User_2!N5=1)*(User_2!P5=3)) + SUM((User_3!N5=1)*(User_3!P5=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SUM((User_1!N5=1)*(User_1!P5=2)) + SUM((User_2!N5=1)*(User_2!P5=2)) + SUM((User_3!N5=1)*(User_3!P5=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <f>SUM((User_1!N5=1)*(User_1!P5=1)) + SUM((User_2!N5=1)*(User_2!P5=1)) + SUM((User_3!N5=1)*(User_3!P5=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f>SUM((User_1!N5=0)*(User_1!P5=3)) + SUM((User_2!N5=0)*(User_2!P5=3)) + SUM((User_3!N5=0)*(User_3!P5=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <f>SUM((User_1!N5=0)*(User_1!P5=2)) + SUM((User_2!N5=0)*(User_2!P5=2)) + SUM((User_3!N5=0)*(User_3!P5=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f>SUM((User_1!N5=0)*(User_1!P5=1)) + SUM((User_2!N5=0)*(User_2!P5=1)) + SUM((User_3!N5=0)*(User_3!P5=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <f>SUM((User_1!N5=2)*(User_1!P5=3)) + SUM((User_2!N5=2)*(User_2!P5=3)) + SUM((User_3!N5=2)*(User_3!P5=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <f>SUM((User_1!N5=2)*(User_1!P5=2)) + SUM((User_2!N5=2)*(User_2!P5=2)) + SUM((User_3!N5=2)*(User_3!P5=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f>SUM((User_1!N5=2)*(User_1!P5=1)) + SUM((User_2!N5=2)*(User_2!P5=1)) + SUM((User_3!N5=2)*(User_3!P5=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <f>SUM((User_1!N5=3)*(User_1!P5=3)) + SUM((User_2!N5=3)*(User_2!P5=3)) + SUM((User_3!N5=3)*(User_3!P5=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f>SUM((User_1!N5=3)*(User_1!P5=2)) + SUM((User_2!N5=3)*(User_2!P5=2)) + SUM((User_3!N5=3)*(User_3!P5=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f>SUM((User_1!N5=3)*(User_1!P5=1)) + SUM((User_2!N5=3)*(User_2!P5=1)) + SUM((User_3!N5=3)*(User_3!P5=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <f>COUNTIF(User_1!N5,2) + COUNTIF(User_2!N5,2) + COUNTIF(User_3!N5,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>COUNTIF(User_1!N5,3) + COUNTIF(User_2!N5,3) + COUNTIF(User_3!N5,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f>COUNTIF(User_1!N5,5) + COUNTIF(User_2!N5,5) + COUNTIF(User_3!N5,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="6">
+        <f>COUNTIF(User_1!N5,4) + COUNTIF(User_2!N5,4) + COUNTIF(User_3!N5,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>AVERAGE(User_1!Q5, User_2!Q5, User_3!Q5)</f>
+        <v>5.6089999999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <f>COUNTIF(User_1!N6,1) + COUNTIF(User_2!N6,1) + COUNTIF(User_3!N6,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <f>COUNTIF(User_1!N6,0) + COUNTIF(User_2!N6,0) + COUNTIF(User_3!N6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <f>SUM((User_1!N6=1)*(User_1!P6=3)) + SUM((User_2!N6=1)*(User_2!P6=3)) + SUM((User_3!N6=1)*(User_3!P6=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <f>SUM((User_1!N6=1)*(User_1!P6=2)) + SUM((User_2!N6=1)*(User_2!P6=2)) + SUM((User_3!N6=1)*(User_3!P6=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <f>SUM((User_1!N6=1)*(User_1!P6=1)) + SUM((User_2!N6=1)*(User_2!P6=1)) + SUM((User_3!N6=1)*(User_3!P6=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f>SUM((User_1!N6=0)*(User_1!P6=3)) + SUM((User_2!N6=0)*(User_2!P6=3)) + SUM((User_3!N6=0)*(User_3!P6=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <f>SUM((User_1!N6=0)*(User_1!P6=2)) + SUM((User_2!N6=0)*(User_2!P6=2)) + SUM((User_3!N6=0)*(User_3!P6=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <f>SUM((User_1!N6=0)*(User_1!P6=1)) + SUM((User_2!N6=0)*(User_2!P6=1)) + SUM((User_3!N6=0)*(User_3!P6=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <f>SUM((User_1!N6=2)*(User_1!P6=3)) + SUM((User_2!N6=2)*(User_2!P6=3)) + SUM((User_3!N6=2)*(User_3!P6=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <f>SUM((User_1!N6=2)*(User_1!P6=2)) + SUM((User_2!N6=2)*(User_2!P6=2)) + SUM((User_3!N6=2)*(User_3!P6=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <f>SUM((User_1!N6=2)*(User_1!P6=1)) + SUM((User_2!N6=2)*(User_2!P6=1)) + SUM((User_3!N6=2)*(User_3!P6=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <f>SUM((User_1!N6=3)*(User_1!P6=3)) + SUM((User_2!N6=3)*(User_2!P6=3)) + SUM((User_3!N6=3)*(User_3!P6=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f>SUM((User_1!N6=3)*(User_1!P6=2)) + SUM((User_2!N6=3)*(User_2!P6=2)) + SUM((User_3!N6=3)*(User_3!P6=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <f>SUM((User_1!N6=3)*(User_1!P6=1)) + SUM((User_2!N6=3)*(User_2!P6=1)) + SUM((User_3!N6=3)*(User_3!P6=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <f>COUNTIF(User_1!N6,2) + COUNTIF(User_2!N6,2) + COUNTIF(User_3!N6,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>COUNTIF(User_1!N6,3) + COUNTIF(User_2!N6,3) + COUNTIF(User_3!N6,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f>COUNTIF(User_1!N6,5) + COUNTIF(User_2!N6,5) + COUNTIF(User_3!N6,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6">
+        <f>COUNTIF(User_1!N6,4) + COUNTIF(User_2!N6,4) + COUNTIF(User_3!N6,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>AVERAGE(User_1!Q6, User_2!Q6, User_3!Q6)</f>
+        <v>5.6756666666666673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <f>COUNTIF(User_1!N7,1) + COUNTIF(User_2!N7,1) + COUNTIF(User_3!N7,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="8">
+        <f>COUNTIF(User_1!N7,0) + COUNTIF(User_2!N7,0) + COUNTIF(User_3!N7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <f>SUM((User_1!N7=1)*(User_1!P7=3)) + SUM((User_2!N7=1)*(User_2!P7=3)) + SUM((User_3!N7=1)*(User_3!P7=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <f>SUM((User_1!N7=1)*(User_1!P7=2)) + SUM((User_2!N7=1)*(User_2!P7=2)) + SUM((User_3!N7=1)*(User_3!P7=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <f>SUM((User_1!N7=1)*(User_1!P7=1)) + SUM((User_2!N7=1)*(User_2!P7=1)) + SUM((User_3!N7=1)*(User_3!P7=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM((User_1!N7=0)*(User_1!P7=3)) + SUM((User_2!N7=0)*(User_2!P7=3)) + SUM((User_3!N7=0)*(User_3!P7=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <f>SUM((User_1!N7=0)*(User_1!P7=2)) + SUM((User_2!N7=0)*(User_2!P7=2)) + SUM((User_3!N7=0)*(User_3!P7=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f>SUM((User_1!N7=0)*(User_1!P7=1)) + SUM((User_2!N7=0)*(User_2!P7=1)) + SUM((User_3!N7=0)*(User_3!P7=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <f>SUM((User_1!N7=2)*(User_1!P7=3)) + SUM((User_2!N7=2)*(User_2!P7=3)) + SUM((User_3!N7=2)*(User_3!P7=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM((User_1!N7=2)*(User_1!P7=2)) + SUM((User_2!N7=2)*(User_2!P7=2)) + SUM((User_3!N7=2)*(User_3!P7=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f>SUM((User_1!N7=2)*(User_1!P7=1)) + SUM((User_2!N7=2)*(User_2!P7=1)) + SUM((User_3!N7=2)*(User_3!P7=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f>SUM((User_1!N7=3)*(User_1!P7=3)) + SUM((User_2!N7=3)*(User_2!P7=3)) + SUM((User_3!N7=3)*(User_3!P7=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f>SUM((User_1!N7=3)*(User_1!P7=2)) + SUM((User_2!N7=3)*(User_2!P7=2)) + SUM((User_3!N7=3)*(User_3!P7=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <f>SUM((User_1!N7=3)*(User_1!P7=1)) + SUM((User_2!N7=3)*(User_2!P7=1)) + SUM((User_3!N7=3)*(User_3!P7=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <f>COUNTIF(User_1!N7,2) + COUNTIF(User_2!N7,2) + COUNTIF(User_3!N7,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>COUNTIF(User_1!N7,3) + COUNTIF(User_2!N7,3) + COUNTIF(User_3!N7,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f>COUNTIF(User_1!N7,5) + COUNTIF(User_2!N7,5) + COUNTIF(User_3!N7,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="6">
+        <f>COUNTIF(User_1!N7,4) + COUNTIF(User_2!N7,4) + COUNTIF(User_3!N7,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>AVERAGE(User_1!Q7, User_2!Q7, User_3!Q7)</f>
+        <v>2.4953333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <f>COUNTIF(User_1!N8,1) + COUNTIF(User_2!N8,1) + COUNTIF(User_3!N8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <f>COUNTIF(User_1!N8,0) + COUNTIF(User_2!N8,0) + COUNTIF(User_3!N8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <f>SUM((User_1!N8=1)*(User_1!P8=3)) + SUM((User_2!N8=1)*(User_2!P8=3)) + SUM((User_3!N8=1)*(User_3!P8=3))</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <f>SUM((User_1!N8=1)*(User_1!P8=2)) + SUM((User_2!N8=1)*(User_2!P8=2)) + SUM((User_3!N8=1)*(User_3!P8=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <f>SUM((User_1!N8=1)*(User_1!P8=1)) + SUM((User_2!N8=1)*(User_2!P8=1)) + SUM((User_3!N8=1)*(User_3!P8=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM((User_1!N8=0)*(User_1!P8=3)) + SUM((User_2!N8=0)*(User_2!P8=3)) + SUM((User_3!N8=0)*(User_3!P8=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM((User_1!N8=0)*(User_1!P8=2)) + SUM((User_2!N8=0)*(User_2!P8=2)) + SUM((User_3!N8=0)*(User_3!P8=2))</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <f>SUM((User_1!N8=0)*(User_1!P8=1)) + SUM((User_2!N8=0)*(User_2!P8=1)) + SUM((User_3!N8=0)*(User_3!P8=1))</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="9">
+        <f>SUM((User_1!N8=2)*(User_1!P8=3)) + SUM((User_2!N8=2)*(User_2!P8=3)) + SUM((User_3!N8=2)*(User_3!P8=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <f>SUM((User_1!N8=2)*(User_1!P8=2)) + SUM((User_2!N8=2)*(User_2!P8=2)) + SUM((User_3!N8=2)*(User_3!P8=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>SUM((User_1!N8=2)*(User_1!P8=1)) + SUM((User_2!N8=2)*(User_2!P8=1)) + SUM((User_3!N8=2)*(User_3!P8=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
+        <f>SUM((User_1!N8=3)*(User_1!P8=3)) + SUM((User_2!N8=3)*(User_2!P8=3)) + SUM((User_3!N8=3)*(User_3!P8=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>SUM((User_1!N8=3)*(User_1!P8=2)) + SUM((User_2!N8=3)*(User_2!P8=2)) + SUM((User_3!N8=3)*(User_3!P8=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <f>SUM((User_1!N8=3)*(User_1!P8=1)) + SUM((User_2!N8=3)*(User_2!P8=1)) + SUM((User_3!N8=3)*(User_3!P8=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <f>COUNTIF(User_1!N8,2) + COUNTIF(User_2!N8,2) + COUNTIF(User_3!N8,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>COUNTIF(User_1!N8,3) + COUNTIF(User_2!N8,3) + COUNTIF(User_3!N8,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <f>COUNTIF(User_1!N8,5) + COUNTIF(User_2!N8,5) + COUNTIF(User_3!N8,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <f>COUNTIF(User_1!N8,4) + COUNTIF(User_2!N8,4) + COUNTIF(User_3!N8,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>AVERAGE(User_1!Q8, User_2!Q8, User_3!Q8)</f>
+        <v>8.9216666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <f>COUNTIF(User_1!N9,1) + COUNTIF(User_2!N9,1) + COUNTIF(User_3!N9,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <f>COUNTIF(User_1!N9,0) + COUNTIF(User_2!N9,0) + COUNTIF(User_3!N9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <f>SUM((User_1!N9=1)*(User_1!P9=3)) + SUM((User_2!N9=1)*(User_2!P9=3)) + SUM((User_3!N9=1)*(User_3!P9=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <f>SUM((User_1!N9=1)*(User_1!P9=2)) + SUM((User_2!N9=1)*(User_2!P9=2)) + SUM((User_3!N9=1)*(User_3!P9=2))</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <f>SUM((User_1!N9=1)*(User_1!P9=1)) + SUM((User_2!N9=1)*(User_2!P9=1)) + SUM((User_3!N9=1)*(User_3!P9=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM((User_1!N9=0)*(User_1!P9=3)) + SUM((User_2!N9=0)*(User_2!P9=3)) + SUM((User_3!N9=0)*(User_3!P9=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f>SUM((User_1!N9=0)*(User_1!P9=2)) + SUM((User_2!N9=0)*(User_2!P9=2)) + SUM((User_3!N9=0)*(User_3!P9=2))</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <f>SUM((User_1!N9=0)*(User_1!P9=1)) + SUM((User_2!N9=0)*(User_2!P9=1)) + SUM((User_3!N9=0)*(User_3!P9=1))</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <f>SUM((User_1!N9=2)*(User_1!P9=3)) + SUM((User_2!N9=2)*(User_2!P9=3)) + SUM((User_3!N9=2)*(User_3!P9=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <f>SUM((User_1!N9=2)*(User_1!P9=2)) + SUM((User_2!N9=2)*(User_2!P9=2)) + SUM((User_3!N9=2)*(User_3!P9=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>SUM((User_1!N9=2)*(User_1!P9=1)) + SUM((User_2!N9=2)*(User_2!P9=1)) + SUM((User_3!N9=2)*(User_3!P9=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <f>SUM((User_1!N9=3)*(User_1!P9=3)) + SUM((User_2!N9=3)*(User_2!P9=3)) + SUM((User_3!N9=3)*(User_3!P9=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <f>SUM((User_1!N9=3)*(User_1!P9=2)) + SUM((User_2!N9=3)*(User_2!P9=2)) + SUM((User_3!N9=3)*(User_3!P9=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <f>SUM((User_1!N9=3)*(User_1!P9=1)) + SUM((User_2!N9=3)*(User_2!P9=1)) + SUM((User_3!N9=3)*(User_3!P9=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <f>COUNTIF(User_1!N9,2) + COUNTIF(User_2!N9,2) + COUNTIF(User_3!N9,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>COUNTIF(User_1!N9,3) + COUNTIF(User_2!N9,3) + COUNTIF(User_3!N9,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <f>COUNTIF(User_1!N9,5) + COUNTIF(User_2!N9,5) + COUNTIF(User_3!N9,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <f>COUNTIF(User_1!N9,4) + COUNTIF(User_2!N9,4) + COUNTIF(User_3!N9,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f>AVERAGE(User_1!Q9, User_2!Q9, User_3!Q9)</f>
+        <v>13.772666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <f>COUNTIF(User_1!N10,1) + COUNTIF(User_2!N10,1) + COUNTIF(User_3!N10,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C10" s="8">
+        <f>COUNTIF(User_1!N10,0) + COUNTIF(User_2!N10,0) + COUNTIF(User_3!N10,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <f>SUM((User_1!N10=1)*(User_1!P10=3)) + SUM((User_2!N10=1)*(User_2!P10=3)) + SUM((User_3!N10=1)*(User_3!P10=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <f>SUM((User_1!N10=1)*(User_1!P10=2)) + SUM((User_2!N10=1)*(User_2!P10=2)) + SUM((User_3!N10=1)*(User_3!P10=2))</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <f>SUM((User_1!N10=1)*(User_1!P10=1)) + SUM((User_2!N10=1)*(User_2!P10=1)) + SUM((User_3!N10=1)*(User_3!P10=1))</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM((User_1!N10=0)*(User_1!P10=3)) + SUM((User_2!N10=0)*(User_2!P10=3)) + SUM((User_3!N10=0)*(User_3!P10=3))</f>
+        <v>1</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM((User_1!N10=0)*(User_1!P10=2)) + SUM((User_2!N10=0)*(User_2!P10=2)) + SUM((User_3!N10=0)*(User_3!P10=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f>SUM((User_1!N10=0)*(User_1!P10=1)) + SUM((User_2!N10=0)*(User_2!P10=1)) + SUM((User_3!N10=0)*(User_3!P10=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <f>SUM((User_1!N10=2)*(User_1!P10=3)) + SUM((User_2!N10=2)*(User_2!P10=3)) + SUM((User_3!N10=2)*(User_3!P10=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <f>SUM((User_1!N10=2)*(User_1!P10=2)) + SUM((User_2!N10=2)*(User_2!P10=2)) + SUM((User_3!N10=2)*(User_3!P10=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>SUM((User_1!N10=2)*(User_1!P10=1)) + SUM((User_2!N10=2)*(User_2!P10=1)) + SUM((User_3!N10=2)*(User_3!P10=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <f>SUM((User_1!N10=3)*(User_1!P10=3)) + SUM((User_2!N10=3)*(User_2!P10=3)) + SUM((User_3!N10=3)*(User_3!P10=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f>SUM((User_1!N10=3)*(User_1!P10=2)) + SUM((User_2!N10=3)*(User_2!P10=2)) + SUM((User_3!N10=3)*(User_3!P10=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="9">
+        <f>SUM((User_1!N10=3)*(User_1!P10=1)) + SUM((User_2!N10=3)*(User_2!P10=1)) + SUM((User_3!N10=3)*(User_3!P10=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <f>COUNTIF(User_1!N10,2) + COUNTIF(User_2!N10,2) + COUNTIF(User_3!N10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>COUNTIF(User_1!N10,3) + COUNTIF(User_2!N10,3) + COUNTIF(User_3!N10,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
+        <f>COUNTIF(User_1!N10,5) + COUNTIF(User_2!N10,5) + COUNTIF(User_3!N10,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="9">
+        <f>COUNTIF(User_1!N10,4) + COUNTIF(User_2!N10,4) + COUNTIF(User_3!N10,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f>AVERAGE(User_1!Q10, User_2!Q10, User_3!Q10)</f>
+        <v>12.378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <f>COUNTIF(User_1!N11,1) + COUNTIF(User_2!N11,1) + COUNTIF(User_3!N11,1)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <f>COUNTIF(User_1!N11,0) + COUNTIF(User_2!N11,0) + COUNTIF(User_3!N11,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <f>SUM((User_1!N11=1)*(User_1!P11=3)) + SUM((User_2!N11=1)*(User_2!P11=3)) + SUM((User_3!N11=1)*(User_3!P11=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <f>SUM((User_1!N11=1)*(User_1!P11=2)) + SUM((User_2!N11=1)*(User_2!P11=2)) + SUM((User_3!N11=1)*(User_3!P11=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <f>SUM((User_1!N11=1)*(User_1!P11=1)) + SUM((User_2!N11=1)*(User_2!P11=1)) + SUM((User_3!N11=1)*(User_3!P11=1))</f>
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <f>SUM((User_1!N11=0)*(User_1!P11=3)) + SUM((User_2!N11=0)*(User_2!P11=3)) + SUM((User_3!N11=0)*(User_3!P11=3))</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM((User_1!N11=0)*(User_1!P11=2)) + SUM((User_2!N11=0)*(User_2!P11=2)) + SUM((User_3!N11=0)*(User_3!P11=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f>SUM((User_1!N11=0)*(User_1!P11=1)) + SUM((User_2!N11=0)*(User_2!P11=1)) + SUM((User_3!N11=0)*(User_3!P11=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <f>SUM((User_1!N11=2)*(User_1!P11=3)) + SUM((User_2!N11=2)*(User_2!P11=3)) + SUM((User_3!N11=2)*(User_3!P11=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <f>SUM((User_1!N11=2)*(User_1!P11=2)) + SUM((User_2!N11=2)*(User_2!P11=2)) + SUM((User_3!N11=2)*(User_3!P11=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>SUM((User_1!N11=2)*(User_1!P11=1)) + SUM((User_2!N11=2)*(User_2!P11=1)) + SUM((User_3!N11=2)*(User_3!P11=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <f>SUM((User_1!N11=3)*(User_1!P11=3)) + SUM((User_2!N11=3)*(User_2!P11=3)) + SUM((User_3!N11=3)*(User_3!P11=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>SUM((User_1!N11=3)*(User_1!P11=2)) + SUM((User_2!N11=3)*(User_2!P11=2)) + SUM((User_3!N11=3)*(User_3!P11=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <f>SUM((User_1!N11=3)*(User_1!P11=1)) + SUM((User_2!N11=3)*(User_2!P11=1)) + SUM((User_3!N11=3)*(User_3!P11=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="9">
+        <f>COUNTIF(User_1!N11,2) + COUNTIF(User_2!N11,2) + COUNTIF(User_3!N11,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>COUNTIF(User_1!N11,3) + COUNTIF(User_2!N11,3) + COUNTIF(User_3!N11,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
+        <f>COUNTIF(User_1!N11,5) + COUNTIF(User_2!N11,5) + COUNTIF(User_3!N11,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <f>COUNTIF(User_1!N11,4) + COUNTIF(User_2!N11,4) + COUNTIF(User_3!N11,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>AVERAGE(User_1!Q11, User_2!Q11, User_3!Q11)</f>
+        <v>12.561999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <f>COUNTIF(User_1!N12,1) + COUNTIF(User_2!N12,1) + COUNTIF(User_3!N12,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <f>COUNTIF(User_1!N12,0) + COUNTIF(User_2!N12,0) + COUNTIF(User_3!N12,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <f>SUM((User_1!N12=1)*(User_1!P12=3)) + SUM((User_2!N12=1)*(User_2!P12=3)) + SUM((User_3!N12=1)*(User_3!P12=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <f>SUM((User_1!N12=1)*(User_1!P12=2)) + SUM((User_2!N12=1)*(User_2!P12=2)) + SUM((User_3!N12=1)*(User_3!P12=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <f>SUM((User_1!N12=1)*(User_1!P12=1)) + SUM((User_2!N12=1)*(User_2!P12=1)) + SUM((User_3!N12=1)*(User_3!P12=1))</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM((User_1!N12=0)*(User_1!P12=3)) + SUM((User_2!N12=0)*(User_2!P12=3)) + SUM((User_3!N12=0)*(User_3!P12=3))</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM((User_1!N12=0)*(User_1!P12=2)) + SUM((User_2!N12=0)*(User_2!P12=2)) + SUM((User_3!N12=0)*(User_3!P12=2))</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <f>SUM((User_1!N12=0)*(User_1!P12=1)) + SUM((User_2!N12=0)*(User_2!P12=1)) + SUM((User_3!N12=0)*(User_3!P12=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <f>SUM((User_1!N12=2)*(User_1!P12=3)) + SUM((User_2!N12=2)*(User_2!P12=3)) + SUM((User_3!N12=2)*(User_3!P12=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <f>SUM((User_1!N12=2)*(User_1!P12=2)) + SUM((User_2!N12=2)*(User_2!P12=2)) + SUM((User_3!N12=2)*(User_3!P12=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>SUM((User_1!N12=2)*(User_1!P12=1)) + SUM((User_2!N12=2)*(User_2!P12=1)) + SUM((User_3!N12=2)*(User_3!P12=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <f>SUM((User_1!N12=3)*(User_1!P12=3)) + SUM((User_2!N12=3)*(User_2!P12=3)) + SUM((User_3!N12=3)*(User_3!P12=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f>SUM((User_1!N12=3)*(User_1!P12=2)) + SUM((User_2!N12=3)*(User_2!P12=2)) + SUM((User_3!N12=3)*(User_3!P12=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <f>SUM((User_1!N12=3)*(User_1!P12=1)) + SUM((User_2!N12=3)*(User_2!P12=1)) + SUM((User_3!N12=3)*(User_3!P12=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <f>COUNTIF(User_1!N12,2) + COUNTIF(User_2!N12,2) + COUNTIF(User_3!N12,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>COUNTIF(User_1!N12,3) + COUNTIF(User_2!N12,3) + COUNTIF(User_3!N12,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <f>COUNTIF(User_1!N12,5) + COUNTIF(User_2!N12,5) + COUNTIF(User_3!N12,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
+        <f>COUNTIF(User_1!N12,4) + COUNTIF(User_2!N12,4) + COUNTIF(User_3!N12,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>AVERAGE(User_1!Q12, User_2!Q12, User_3!Q12)</f>
+        <v>9.9099999999999984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <f>COUNTIF(User_1!N13,1) + COUNTIF(User_2!N13,1) + COUNTIF(User_3!N13,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <f>COUNTIF(User_1!N13,0) + COUNTIF(User_2!N13,0) + COUNTIF(User_3!N13,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <f>SUM((User_1!N13=1)*(User_1!P13=3)) + SUM((User_2!N13=1)*(User_2!P13=3)) + SUM((User_3!N13=1)*(User_3!P13=3))</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <f>SUM((User_1!N13=1)*(User_1!P13=2)) + SUM((User_2!N13=1)*(User_2!P13=2)) + SUM((User_3!N13=1)*(User_3!P13=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <f>SUM((User_1!N13=1)*(User_1!P13=1)) + SUM((User_2!N13=1)*(User_2!P13=1)) + SUM((User_3!N13=1)*(User_3!P13=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f>SUM((User_1!N13=0)*(User_1!P13=3)) + SUM((User_2!N13=0)*(User_2!P13=3)) + SUM((User_3!N13=0)*(User_3!P13=3))</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM((User_1!N13=0)*(User_1!P13=2)) + SUM((User_2!N13=0)*(User_2!P13=2)) + SUM((User_3!N13=0)*(User_3!P13=2))</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <f>SUM((User_1!N13=0)*(User_1!P13=1)) + SUM((User_2!N13=0)*(User_2!P13=1)) + SUM((User_3!N13=0)*(User_3!P13=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <f>SUM((User_1!N13=2)*(User_1!P13=3)) + SUM((User_2!N13=2)*(User_2!P13=3)) + SUM((User_3!N13=2)*(User_3!P13=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <f>SUM((User_1!N13=2)*(User_1!P13=2)) + SUM((User_2!N13=2)*(User_2!P13=2)) + SUM((User_3!N13=2)*(User_3!P13=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>SUM((User_1!N13=2)*(User_1!P13=1)) + SUM((User_2!N13=2)*(User_2!P13=1)) + SUM((User_3!N13=2)*(User_3!P13=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <f>SUM((User_1!N13=3)*(User_1!P13=3)) + SUM((User_2!N13=3)*(User_2!P13=3)) + SUM((User_3!N13=3)*(User_3!P13=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f>SUM((User_1!N13=3)*(User_1!P13=2)) + SUM((User_2!N13=3)*(User_2!P13=2)) + SUM((User_3!N13=3)*(User_3!P13=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <f>SUM((User_1!N13=3)*(User_1!P13=1)) + SUM((User_2!N13=3)*(User_2!P13=1)) + SUM((User_3!N13=3)*(User_3!P13=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <f>COUNTIF(User_1!N13,2) + COUNTIF(User_2!N13,2) + COUNTIF(User_3!N13,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>COUNTIF(User_1!N13,3) + COUNTIF(User_2!N13,3) + COUNTIF(User_3!N13,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
+        <f>COUNTIF(User_1!N13,5) + COUNTIF(User_2!N13,5) + COUNTIF(User_3!N13,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <f>COUNTIF(User_1!N13,4) + COUNTIF(User_2!N13,4) + COUNTIF(User_3!N13,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>AVERAGE(User_1!Q13, User_2!Q13, User_3!Q13)</f>
+        <v>7.780666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <f>COUNTIF(User_1!N14,1) + COUNTIF(User_2!N14,1) + COUNTIF(User_3!N14,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="10">
+        <f>COUNTIF(User_1!N14,0) + COUNTIF(User_2!N14,0) + COUNTIF(User_3!N14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM((User_1!N14=1)*(User_1!P14=3)) + SUM((User_2!N14=1)*(User_2!P14=3)) + SUM((User_3!N14=1)*(User_3!P14=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <f>SUM((User_1!N14=1)*(User_1!P14=2)) + SUM((User_2!N14=1)*(User_2!P14=2)) + SUM((User_3!N14=1)*(User_3!P14=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <f>SUM((User_1!N14=1)*(User_1!P14=1)) + SUM((User_2!N14=1)*(User_2!P14=1)) + SUM((User_3!N14=1)*(User_3!P14=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM((User_1!N14=0)*(User_1!P14=3)) + SUM((User_2!N14=0)*(User_2!P14=3)) + SUM((User_3!N14=0)*(User_3!P14=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM((User_1!N14=0)*(User_1!P14=2)) + SUM((User_2!N14=0)*(User_2!P14=2)) + SUM((User_3!N14=0)*(User_3!P14=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <f>SUM((User_1!N14=0)*(User_1!P14=1)) + SUM((User_2!N14=0)*(User_2!P14=1)) + SUM((User_3!N14=0)*(User_3!P14=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUM((User_1!N14=2)*(User_1!P14=3)) + SUM((User_2!N14=2)*(User_2!P14=3)) + SUM((User_3!N14=2)*(User_3!P14=3))</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <f>SUM((User_1!N14=2)*(User_1!P14=2)) + SUM((User_2!N14=2)*(User_2!P14=2)) + SUM((User_3!N14=2)*(User_3!P14=2))</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="10">
+        <f>SUM((User_1!N14=2)*(User_1!P14=1)) + SUM((User_2!N14=2)*(User_2!P14=1)) + SUM((User_3!N14=2)*(User_3!P14=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f>SUM((User_1!N14=3)*(User_1!P14=3)) + SUM((User_2!N14=3)*(User_2!P14=3)) + SUM((User_3!N14=3)*(User_3!P14=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <f>SUM((User_1!N14=3)*(User_1!P14=2)) + SUM((User_2!N14=3)*(User_2!P14=2)) + SUM((User_3!N14=3)*(User_3!P14=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <f>SUM((User_1!N14=3)*(User_1!P14=1)) + SUM((User_2!N14=3)*(User_2!P14=1)) + SUM((User_3!N14=3)*(User_3!P14=1))</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="7">
+        <f>COUNTIF(User_1!N14,2) + COUNTIF(User_2!N14,2) + COUNTIF(User_3!N14,2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>COUNTIF(User_1!N14,3) + COUNTIF(User_2!N14,3) + COUNTIF(User_3!N14,3)</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <f>COUNTIF(User_1!N14,5) + COUNTIF(User_2!N14,5) + COUNTIF(User_3!N14,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="10">
+        <f>COUNTIF(User_1!N14,4) + COUNTIF(User_2!N14,4) + COUNTIF(User_3!N14,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>AVERAGE(User_1!Q14, User_2!Q14, User_3!Q14)</f>
+        <v>9.9683333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <f>COUNTIF(User_1!N15,1) + COUNTIF(User_2!N15,1) + COUNTIF(User_3!N15,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="10">
+        <f>COUNTIF(User_1!N15,0) + COUNTIF(User_2!N15,0) + COUNTIF(User_3!N15,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <f>SUM((User_1!N15=1)*(User_1!P15=3)) + SUM((User_2!N15=1)*(User_2!P15=3)) + SUM((User_3!N15=1)*(User_3!P15=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <f>SUM((User_1!N15=1)*(User_1!P15=2)) + SUM((User_2!N15=1)*(User_2!P15=2)) + SUM((User_3!N15=1)*(User_3!P15=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <f>SUM((User_1!N15=1)*(User_1!P15=1)) + SUM((User_2!N15=1)*(User_2!P15=1)) + SUM((User_3!N15=1)*(User_3!P15=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM((User_1!N15=0)*(User_1!P15=3)) + SUM((User_2!N15=0)*(User_2!P15=3)) + SUM((User_3!N15=0)*(User_3!P15=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f>SUM((User_1!N15=0)*(User_1!P15=2)) + SUM((User_2!N15=0)*(User_2!P15=2)) + SUM((User_3!N15=0)*(User_3!P15=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <f>SUM((User_1!N15=0)*(User_1!P15=1)) + SUM((User_2!N15=0)*(User_2!P15=1)) + SUM((User_3!N15=0)*(User_3!P15=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <f>SUM((User_1!N15=2)*(User_1!P15=3)) + SUM((User_2!N15=2)*(User_2!P15=3)) + SUM((User_3!N15=2)*(User_3!P15=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <f>SUM((User_1!N15=2)*(User_1!P15=2)) + SUM((User_2!N15=2)*(User_2!P15=2)) + SUM((User_3!N15=2)*(User_3!P15=2))</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="10">
+        <f>SUM((User_1!N15=2)*(User_1!P15=1)) + SUM((User_2!N15=2)*(User_2!P15=1)) + SUM((User_3!N15=2)*(User_3!P15=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <f>SUM((User_1!N15=3)*(User_1!P15=3)) + SUM((User_2!N15=3)*(User_2!P15=3)) + SUM((User_3!N15=3)*(User_3!P15=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <f>SUM((User_1!N15=3)*(User_1!P15=2)) + SUM((User_2!N15=3)*(User_2!P15=2)) + SUM((User_3!N15=3)*(User_3!P15=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <f>SUM((User_1!N15=3)*(User_1!P15=1)) + SUM((User_2!N15=3)*(User_2!P15=1)) + SUM((User_3!N15=3)*(User_3!P15=1))</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <f>COUNTIF(User_1!N15,2) + COUNTIF(User_2!N15,2) + COUNTIF(User_3!N15,2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="8">
+        <f>COUNTIF(User_1!N15,3) + COUNTIF(User_2!N15,3) + COUNTIF(User_3!N15,3)</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
+        <f>COUNTIF(User_1!N15,5) + COUNTIF(User_2!N15,5) + COUNTIF(User_3!N15,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <f>COUNTIF(User_1!N15,4) + COUNTIF(User_2!N15,4) + COUNTIF(User_3!N15,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(User_1!Q15, User_2!Q15, User_3!Q15)</f>
+        <v>7.280333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <f>COUNTIF(User_1!N16,1) + COUNTIF(User_2!N16,1) + COUNTIF(User_3!N16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="10">
+        <f>COUNTIF(User_1!N16,0) + COUNTIF(User_2!N16,0) + COUNTIF(User_3!N16,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
+        <f>SUM((User_1!N16=1)*(User_1!P16=3)) + SUM((User_2!N16=1)*(User_2!P16=3)) + SUM((User_3!N16=1)*(User_3!P16=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <f>SUM((User_1!N16=1)*(User_1!P16=2)) + SUM((User_2!N16=1)*(User_2!P16=2)) + SUM((User_3!N16=1)*(User_3!P16=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <f>SUM((User_1!N16=1)*(User_1!P16=1)) + SUM((User_2!N16=1)*(User_2!P16=1)) + SUM((User_3!N16=1)*(User_3!P16=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM((User_1!N16=0)*(User_1!P16=3)) + SUM((User_2!N16=0)*(User_2!P16=3)) + SUM((User_3!N16=0)*(User_3!P16=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM((User_1!N16=0)*(User_1!P16=2)) + SUM((User_2!N16=0)*(User_2!P16=2)) + SUM((User_3!N16=0)*(User_3!P16=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <f>SUM((User_1!N16=0)*(User_1!P16=1)) + SUM((User_2!N16=0)*(User_2!P16=1)) + SUM((User_3!N16=0)*(User_3!P16=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <f>SUM((User_1!N16=2)*(User_1!P16=3)) + SUM((User_2!N16=2)*(User_2!P16=3)) + SUM((User_3!N16=2)*(User_3!P16=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f>SUM((User_1!N16=2)*(User_1!P16=2)) + SUM((User_2!N16=2)*(User_2!P16=2)) + SUM((User_3!N16=2)*(User_3!P16=2))</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="10">
+        <f>SUM((User_1!N16=2)*(User_1!P16=1)) + SUM((User_2!N16=2)*(User_2!P16=1)) + SUM((User_3!N16=2)*(User_3!P16=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f>SUM((User_1!N16=3)*(User_1!P16=3)) + SUM((User_2!N16=3)*(User_2!P16=3)) + SUM((User_3!N16=3)*(User_3!P16=3))</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <f>SUM((User_1!N16=3)*(User_1!P16=2)) + SUM((User_2!N16=3)*(User_2!P16=2)) + SUM((User_3!N16=3)*(User_3!P16=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <f>SUM((User_1!N16=3)*(User_1!P16=1)) + SUM((User_2!N16=3)*(User_2!P16=1)) + SUM((User_3!N16=3)*(User_3!P16=1))</f>
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <f>COUNTIF(User_1!N16,2) + COUNTIF(User_2!N16,2) + COUNTIF(User_3!N16,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="8">
+        <f>COUNTIF(User_1!N16,3) + COUNTIF(User_2!N16,3) + COUNTIF(User_3!N16,3)</f>
+        <v>2</v>
+      </c>
+      <c r="R16" s="10">
+        <f>COUNTIF(User_1!N16,5) + COUNTIF(User_2!N16,5) + COUNTIF(User_3!N16,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <f>COUNTIF(User_1!N16,4) + COUNTIF(User_2!N16,4) + COUNTIF(User_3!N16,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>AVERAGE(User_1!Q16, User_2!Q16, User_3!Q16)</f>
+        <v>10.926666666666668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <f>COUNTIF(User_1!N17,1) + COUNTIF(User_2!N17,1) + COUNTIF(User_3!N17,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="10">
+        <f>COUNTIF(User_1!N17,0) + COUNTIF(User_2!N17,0) + COUNTIF(User_3!N17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <f>SUM((User_1!N17=1)*(User_1!P17=3)) + SUM((User_2!N17=1)*(User_2!P17=3)) + SUM((User_3!N17=1)*(User_3!P17=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <f>SUM((User_1!N17=1)*(User_1!P17=2)) + SUM((User_2!N17=1)*(User_2!P17=2)) + SUM((User_3!N17=1)*(User_3!P17=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <f>SUM((User_1!N17=1)*(User_1!P17=1)) + SUM((User_2!N17=1)*(User_2!P17=1)) + SUM((User_3!N17=1)*(User_3!P17=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <f>SUM((User_1!N17=0)*(User_1!P17=3)) + SUM((User_2!N17=0)*(User_2!P17=3)) + SUM((User_3!N17=0)*(User_3!P17=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f>SUM((User_1!N17=0)*(User_1!P17=2)) + SUM((User_2!N17=0)*(User_2!P17=2)) + SUM((User_3!N17=0)*(User_3!P17=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <f>SUM((User_1!N17=0)*(User_1!P17=1)) + SUM((User_2!N17=0)*(User_2!P17=1)) + SUM((User_3!N17=0)*(User_3!P17=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f>SUM((User_1!N17=2)*(User_1!P17=3)) + SUM((User_2!N17=2)*(User_2!P17=3)) + SUM((User_3!N17=2)*(User_3!P17=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f>SUM((User_1!N17=2)*(User_1!P17=2)) + SUM((User_2!N17=2)*(User_2!P17=2)) + SUM((User_3!N17=2)*(User_3!P17=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f>SUM((User_1!N17=2)*(User_1!P17=1)) + SUM((User_2!N17=2)*(User_2!P17=1)) + SUM((User_3!N17=2)*(User_3!P17=1))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <f>SUM((User_1!N17=3)*(User_1!P17=3)) + SUM((User_2!N17=3)*(User_2!P17=3)) + SUM((User_3!N17=3)*(User_3!P17=3))</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <f>SUM((User_1!N17=3)*(User_1!P17=2)) + SUM((User_2!N17=3)*(User_2!P17=2)) + SUM((User_3!N17=3)*(User_3!P17=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <f>SUM((User_1!N17=3)*(User_1!P17=1)) + SUM((User_2!N17=3)*(User_2!P17=1)) + SUM((User_3!N17=3)*(User_3!P17=1))</f>
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <f>COUNTIF(User_1!N17,2) + COUNTIF(User_2!N17,2) + COUNTIF(User_3!N17,2)</f>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="8">
+        <f>COUNTIF(User_1!N17,3) + COUNTIF(User_2!N17,3) + COUNTIF(User_3!N17,3)</f>
+        <v>2</v>
+      </c>
+      <c r="R17" s="10">
+        <f>COUNTIF(User_1!N17,5) + COUNTIF(User_2!N17,5) + COUNTIF(User_3!N17,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <f>COUNTIF(User_1!N17,4) + COUNTIF(User_2!N17,4) + COUNTIF(User_3!N17,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>AVERAGE(User_1!Q17, User_2!Q17, User_3!Q17)</f>
+        <v>8.2989999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <f>COUNTIF(User_1!N18,1) + COUNTIF(User_2!N18,1) + COUNTIF(User_3!N18,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="10">
+        <f>COUNTIF(User_1!N18,0) + COUNTIF(User_2!N18,0) + COUNTIF(User_3!N18,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <f>SUM((User_1!N18=1)*(User_1!P18=3)) + SUM((User_2!N18=1)*(User_2!P18=3)) + SUM((User_3!N18=1)*(User_3!P18=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <f>SUM((User_1!N18=1)*(User_1!P18=2)) + SUM((User_2!N18=1)*(User_2!P18=2)) + SUM((User_3!N18=1)*(User_3!P18=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <f>SUM((User_1!N18=1)*(User_1!P18=1)) + SUM((User_2!N18=1)*(User_2!P18=1)) + SUM((User_3!N18=1)*(User_3!P18=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM((User_1!N18=0)*(User_1!P18=3)) + SUM((User_2!N18=0)*(User_2!P18=3)) + SUM((User_3!N18=0)*(User_3!P18=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f>SUM((User_1!N18=0)*(User_1!P18=2)) + SUM((User_2!N18=0)*(User_2!P18=2)) + SUM((User_3!N18=0)*(User_3!P18=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f>SUM((User_1!N18=0)*(User_1!P18=1)) + SUM((User_2!N18=0)*(User_2!P18=1)) + SUM((User_3!N18=0)*(User_3!P18=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUM((User_1!N18=2)*(User_1!P18=3)) + SUM((User_2!N18=2)*(User_2!P18=3)) + SUM((User_3!N18=2)*(User_3!P18=3))</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
+        <f>SUM((User_1!N18=2)*(User_1!P18=2)) + SUM((User_2!N18=2)*(User_2!P18=2)) + SUM((User_3!N18=2)*(User_3!P18=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f>SUM((User_1!N18=2)*(User_1!P18=1)) + SUM((User_2!N18=2)*(User_2!P18=1)) + SUM((User_3!N18=2)*(User_3!P18=1))</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <f>SUM((User_1!N18=3)*(User_1!P18=3)) + SUM((User_2!N18=3)*(User_2!P18=3)) + SUM((User_3!N18=3)*(User_3!P18=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <f>SUM((User_1!N18=3)*(User_1!P18=2)) + SUM((User_2!N18=3)*(User_2!P18=2)) + SUM((User_3!N18=3)*(User_3!P18=2))</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
+        <f>SUM((User_1!N18=3)*(User_1!P18=1)) + SUM((User_2!N18=3)*(User_2!P18=1)) + SUM((User_3!N18=3)*(User_3!P18=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7">
+        <f>COUNTIF(User_1!N18,2) + COUNTIF(User_2!N18,2) + COUNTIF(User_3!N18,2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="8">
+        <f>COUNTIF(User_1!N18,3) + COUNTIF(User_2!N18,3) + COUNTIF(User_3!N18,3)</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="10">
+        <f>COUNTIF(User_1!N18,5) + COUNTIF(User_2!N18,5) + COUNTIF(User_3!N18,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="10">
+        <f>COUNTIF(User_1!N18,4) + COUNTIF(User_2!N18,4) + COUNTIF(User_3!N18,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(User_1!Q18, User_2!Q18, User_3!Q18)</f>
+        <v>29.653333333333332</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <f>COUNTIF(User_1!N19,1) + COUNTIF(User_2!N19,1) + COUNTIF(User_3!N19,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <f>COUNTIF(User_1!N19,0) + COUNTIF(User_2!N19,0) + COUNTIF(User_3!N19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <f>SUM((User_1!N19=1)*(User_1!P19=3)) + SUM((User_2!N19=1)*(User_2!P19=3)) + SUM((User_3!N19=1)*(User_3!P19=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <f>SUM((User_1!N19=1)*(User_1!P19=2)) + SUM((User_2!N19=1)*(User_2!P19=2)) + SUM((User_3!N19=1)*(User_3!P19=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f>SUM((User_1!N19=1)*(User_1!P19=1)) + SUM((User_2!N19=1)*(User_2!P19=1)) + SUM((User_3!N19=1)*(User_3!P19=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <f>SUM((User_1!N19=0)*(User_1!P19=3)) + SUM((User_2!N19=0)*(User_2!P19=3)) + SUM((User_3!N19=0)*(User_3!P19=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f>SUM((User_1!N19=0)*(User_1!P19=2)) + SUM((User_2!N19=0)*(User_2!P19=2)) + SUM((User_3!N19=0)*(User_3!P19=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f>SUM((User_1!N19=0)*(User_1!P19=1)) + SUM((User_2!N19=0)*(User_2!P19=1)) + SUM((User_3!N19=0)*(User_3!P19=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUM((User_1!N19=2)*(User_1!P19=3)) + SUM((User_2!N19=2)*(User_2!P19=3)) + SUM((User_3!N19=2)*(User_3!P19=3))</f>
+        <v>2</v>
+      </c>
+      <c r="K19" s="10">
+        <f>SUM((User_1!N19=2)*(User_1!P19=2)) + SUM((User_2!N19=2)*(User_2!P19=2)) + SUM((User_3!N19=2)*(User_3!P19=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f>SUM((User_1!N19=2)*(User_1!P19=1)) + SUM((User_2!N19=2)*(User_2!P19=1)) + SUM((User_3!N19=2)*(User_3!P19=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f>SUM((User_1!N19=3)*(User_1!P19=3)) + SUM((User_2!N19=3)*(User_2!P19=3)) + SUM((User_3!N19=3)*(User_3!P19=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <f>SUM((User_1!N19=3)*(User_1!P19=2)) + SUM((User_2!N19=3)*(User_2!P19=2)) + SUM((User_3!N19=3)*(User_3!P19=2))</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10">
+        <f>SUM((User_1!N19=3)*(User_1!P19=1)) + SUM((User_2!N19=3)*(User_2!P19=1)) + SUM((User_3!N19=3)*(User_3!P19=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7">
+        <f>COUNTIF(User_1!N19,2) + COUNTIF(User_2!N19,2) + COUNTIF(User_3!N19,2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="8">
+        <f>COUNTIF(User_1!N19,3) + COUNTIF(User_2!N19,3) + COUNTIF(User_3!N19,3)</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <f>COUNTIF(User_1!N19,5) + COUNTIF(User_2!N19,5) + COUNTIF(User_3!N19,5)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <f>COUNTIF(User_1!N19,4) + COUNTIF(User_2!N19,4) + COUNTIF(User_3!N19,4)</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>AVERAGE(User_1!Q19, User_2!Q19, User_3!Q19)</f>
+        <v>29.611666666666665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <f>COUNTIF(User_1!N20,1) + COUNTIF(User_2!N20,1) + COUNTIF(User_3!N20,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f>COUNTIF(User_1!N20,0) + COUNTIF(User_2!N20,0) + COUNTIF(User_3!N20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <f>SUM((User_1!N20=1)*(User_1!P20=3)) + SUM((User_2!N20=1)*(User_2!P20=3)) + SUM((User_3!N20=1)*(User_3!P20=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>SUM((User_1!N20=1)*(User_1!P20=2)) + SUM((User_2!N20=1)*(User_2!P20=2)) + SUM((User_3!N20=1)*(User_3!P20=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <f>SUM((User_1!N20=1)*(User_1!P20=1)) + SUM((User_2!N20=1)*(User_2!P20=1)) + SUM((User_3!N20=1)*(User_3!P20=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM((User_1!N20=0)*(User_1!P20=3)) + SUM((User_2!N20=0)*(User_2!P20=3)) + SUM((User_3!N20=0)*(User_3!P20=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM((User_1!N20=0)*(User_1!P20=2)) + SUM((User_2!N20=0)*(User_2!P20=2)) + SUM((User_3!N20=0)*(User_3!P20=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <f>SUM((User_1!N20=0)*(User_1!P20=1)) + SUM((User_2!N20=0)*(User_2!P20=1)) + SUM((User_3!N20=0)*(User_3!P20=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>SUM((User_1!N20=2)*(User_1!P20=3)) + SUM((User_2!N20=2)*(User_2!P20=3)) + SUM((User_3!N20=2)*(User_3!P20=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>SUM((User_1!N20=2)*(User_1!P20=2)) + SUM((User_2!N20=2)*(User_2!P20=2)) + SUM((User_3!N20=2)*(User_3!P20=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>SUM((User_1!N20=2)*(User_1!P20=1)) + SUM((User_2!N20=2)*(User_2!P20=1)) + SUM((User_3!N20=2)*(User_3!P20=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>SUM((User_1!N20=3)*(User_1!P20=3)) + SUM((User_2!N20=3)*(User_2!P20=3)) + SUM((User_3!N20=3)*(User_3!P20=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <f>SUM((User_1!N20=3)*(User_1!P20=2)) + SUM((User_2!N20=3)*(User_2!P20=2)) + SUM((User_3!N20=3)*(User_3!P20=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="11">
+        <f>SUM((User_1!N20=3)*(User_1!P20=1)) + SUM((User_2!N20=3)*(User_2!P20=1)) + SUM((User_3!N20=3)*(User_3!P20=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="11">
+        <f>COUNTIF(User_1!N20,2) + COUNTIF(User_2!N20,2) + COUNTIF(User_3!N20,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
+        <f>COUNTIF(User_1!N20,3) + COUNTIF(User_2!N20,3) + COUNTIF(User_3!N20,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <f>COUNTIF(User_1!N20,5) + COUNTIF(User_2!N20,5) + COUNTIF(User_3!N20,5)</f>
+        <v>2</v>
+      </c>
+      <c r="S20" s="13">
+        <f>COUNTIF(User_1!N20,4) + COUNTIF(User_2!N20,4) + COUNTIF(User_3!N20,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <f>AVERAGE(User_1!Q20, User_2!Q20, User_3!Q20)</f>
+        <v>7.6686666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <f>COUNTIF(User_1!N21,1) + COUNTIF(User_2!N21,1) + COUNTIF(User_3!N21,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f>COUNTIF(User_1!N21,0) + COUNTIF(User_2!N21,0) + COUNTIF(User_3!N21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="11">
+        <f>SUM((User_1!N21=1)*(User_1!P21=3)) + SUM((User_2!N21=1)*(User_2!P21=3)) + SUM((User_3!N21=1)*(User_3!P21=3))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f>SUM((User_1!N21=1)*(User_1!P21=2)) + SUM((User_2!N21=1)*(User_2!P21=2)) + SUM((User_3!N21=1)*(User_3!P21=2))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <f>SUM((User_1!N21=1)*(User_1!P21=1)) + SUM((User_2!N21=1)*(User_2!P21=1)) + SUM((User_3!N21=1)*(User_3!P21=1))</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>SUM((User_1!N21=0)*(User_1!P21=3)) + SUM((User_2!N21=0)*(User_2!P21=3)) + SUM((User_3!N21=0)*(User_3!P21=3))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <f>SUM((User_1!N21=0)*(User_1!P21=2)) + SUM((User_2!N21=0)*(User_2!P21=2)) + SUM((User_3!N21=0)*(User_3!P21=2))</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="11">
+        <f>SUM((User_1!N21=0)*(User_1!P21=1)) + SUM((User_2!N21=0)*(User_2!P21=1)) + SUM((User_3!N21=0)*(User_3!P21=1))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>SUM((User_1!N21=2)*(User_1!P21=3)) + SUM((User_2!N21=2)*(User_2!P21=3)) + SUM((User_3!N21=2)*(User_3!P21=3))</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>SUM((User_1!N21=2)*(User_1!P21=2)) + SUM((User_2!N21=2)*(User_2!P21=2)) + SUM((User_3!N21=2)*(User_3!P21=2))</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>SUM((User_1!N21=2)*(User_1!P21=1)) + SUM((User_2!N21=2)*(User_2!P21=1)) + SUM((User_3!N21=2)*(User_3!P21=1))</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>SUM((User_1!N21=3)*(User_1!P21=3)) + SUM((User_2!N21=3)*(User_2!P21=3)) + SUM((User_3!N21=3)*(User_3!P21=3))</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f>SUM((User_1!N21=3)*(User_1!P21=2)) + SUM((User_2!N21=3)*(User_2!P21=2)) + SUM((User_3!N21=3)*(User_3!P21=2))</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <f>SUM((User_1!N21=3)*(User_1!P21=1)) + SUM((User_2!N21=3)*(User_2!P21=1)) + SUM((User_3!N21=3)*(User_3!P21=1))</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <f>COUNTIF(User_1!N21,2) + COUNTIF(User_2!N21,2) + COUNTIF(User_3!N21,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <f>COUNTIF(User_1!N21,3) + COUNTIF(User_2!N21,3) + COUNTIF(User_3!N21,3)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <f>COUNTIF(User_1!N21,5) + COUNTIF(User_2!N21,5) + COUNTIF(User_3!N21,5)</f>
+        <v>2</v>
+      </c>
+      <c r="S21" s="13">
+        <f>COUNTIF(User_1!N21,4) + COUNTIF(User_2!N21,4) + COUNTIF(User_3!N21,4)</f>
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <f>AVERAGE(User_1!Q21, User_2!Q21, User_3!Q21)</f>
+        <v>2.9589999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712D46CC-0000-4508-8F3F-D1ED8595745D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6704,7 +8540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08FC8C4B-554A-4BB4-A579-582CC05CAB9D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6719,7 +8555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E892870A-0BE6-44A0-9094-527292D8BB78}">
   <dimension ref="A1:H22"/>
   <sheetViews>
@@ -7051,7 +8887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EFE30D-FE5B-4A78-84AF-03CFFB40B16B}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -7271,7 +9107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCCBBBE-7AFD-49FA-AB08-D91D599EF910}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -7702,7 +9538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512A34B1-6E46-485C-B138-2E2467635FCA}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -7956,7 +9792,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10902,10 +12738,19 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -11989,10 +13834,585 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD42F3DD-735C-44F6-B1A1-AA9BF78E5B89}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="240.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DF9A52-7094-4721-82F9-4DC0B913695D}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -13326,1722 +15746,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7FDA74-D9E0-4DB0-9EC2-A4173095377A}">
-  <dimension ref="A1:T21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <f>COUNTIF(User_1!N2,1) + COUNTIF(User_2!N2,1) + COUNTIF(User_3!N2,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C2" s="8">
-        <f>COUNTIF(User_1!N2,0) + COUNTIF(User_2!N2,0) + COUNTIF(User_3!N2,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <f>SUM((User_1!N2=1)*(User_1!P2=3)) + SUM((User_2!N2=1)*(User_2!P2=3)) + SUM((User_3!N2=1)*(User_3!P2=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <f>SUM((User_1!N2=1)*(User_1!P2=2)) + SUM((User_2!N2=1)*(User_2!P2=2)) + SUM((User_3!N2=1)*(User_3!P2=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <f>SUM((User_1!N2=1)*(User_1!P2=1)) + SUM((User_2!N2=1)*(User_2!P2=1)) + SUM((User_3!N2=1)*(User_3!P2=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <f>SUM((User_1!N2=0)*(User_1!P2=3)) + SUM((User_2!N2=0)*(User_2!P2=3)) + SUM((User_3!N2=0)*(User_3!P2=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <f>SUM((User_1!N2=0)*(User_1!P2=2)) + SUM((User_2!N2=0)*(User_2!P2=2)) + SUM((User_3!N2=0)*(User_3!P2=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <f>SUM((User_1!N2=0)*(User_1!P2=1)) + SUM((User_2!N2=0)*(User_2!P2=1)) + SUM((User_3!N2=0)*(User_3!P2=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <f>SUM((User_1!N2=2)*(User_1!P2=3)) + SUM((User_2!N2=2)*(User_2!P2=3)) + SUM((User_3!N2=2)*(User_3!P2=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <f>SUM((User_1!N2=2)*(User_1!P2=2)) + SUM((User_2!N2=2)*(User_2!P2=2)) + SUM((User_3!N2=2)*(User_3!P2=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <f>SUM((User_1!N2=2)*(User_1!P2=1)) + SUM((User_2!N2=2)*(User_2!P2=1)) + SUM((User_3!N2=2)*(User_3!P2=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <f>SUM((User_1!N2=3)*(User_1!P2=3)) + SUM((User_2!N2=3)*(User_2!P2=3)) + SUM((User_3!N2=3)*(User_3!P2=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <f>SUM((User_1!N2=3)*(User_1!P2=2)) + SUM((User_2!N2=3)*(User_2!P2=2)) + SUM((User_3!N2=3)*(User_3!P2=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <f>SUM((User_1!N2=3)*(User_1!P2=1)) + SUM((User_2!N2=3)*(User_2!P2=1)) + SUM((User_3!N2=3)*(User_3!P2=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
-        <f>COUNTIF(User_1!N2,2) + COUNTIF(User_2!N2,2) + COUNTIF(User_3!N2,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <f>COUNTIF(User_1!N2,3) + COUNTIF(User_2!N2,3) + COUNTIF(User_3!N2,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <f>COUNTIF(User_1!N2,5) + COUNTIF(User_2!N2,5) + COUNTIF(User_3!N2,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="6">
-        <f>COUNTIF(User_1!N2,4) + COUNTIF(User_2!N2,4) + COUNTIF(User_3!N2,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f>AVERAGE(User_1!Q2, User_2!Q2, User_3!Q2)</f>
-        <v>21.110333333333333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <f>COUNTIF(User_1!N3,1) + COUNTIF(User_2!N3,1) + COUNTIF(User_3!N3,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <f>COUNTIF(User_1!N3,0) + COUNTIF(User_2!N3,0) + COUNTIF(User_3!N3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <f>SUM((User_1!N3=1)*(User_1!P3=3)) + SUM((User_2!N3=1)*(User_2!P3=3)) + SUM((User_3!N3=1)*(User_3!P3=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <f>SUM((User_1!N3=1)*(User_1!P3=2)) + SUM((User_2!N3=1)*(User_2!P3=2)) + SUM((User_3!N3=1)*(User_3!P3=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <f>SUM((User_1!N3=1)*(User_1!P3=1)) + SUM((User_2!N3=1)*(User_2!P3=1)) + SUM((User_3!N3=1)*(User_3!P3=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>SUM((User_1!N3=0)*(User_1!P3=3)) + SUM((User_2!N3=0)*(User_2!P3=3)) + SUM((User_3!N3=0)*(User_3!P3=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <f>SUM((User_1!N3=0)*(User_1!P3=2)) + SUM((User_2!N3=0)*(User_2!P3=2)) + SUM((User_3!N3=0)*(User_3!P3=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <f>SUM((User_1!N3=0)*(User_1!P3=1)) + SUM((User_2!N3=0)*(User_2!P3=1)) + SUM((User_3!N3=0)*(User_3!P3=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <f>SUM((User_1!N3=2)*(User_1!P3=3)) + SUM((User_2!N3=2)*(User_2!P3=3)) + SUM((User_3!N3=2)*(User_3!P3=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <f>SUM((User_1!N3=2)*(User_1!P3=2)) + SUM((User_2!N3=2)*(User_2!P3=2)) + SUM((User_3!N3=2)*(User_3!P3=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <f>SUM((User_1!N3=2)*(User_1!P3=1)) + SUM((User_2!N3=2)*(User_2!P3=1)) + SUM((User_3!N3=2)*(User_3!P3=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM((User_1!N3=3)*(User_1!P3=3)) + SUM((User_2!N3=3)*(User_2!P3=3)) + SUM((User_3!N3=3)*(User_3!P3=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <f>SUM((User_1!N3=3)*(User_1!P3=2)) + SUM((User_2!N3=3)*(User_2!P3=2)) + SUM((User_3!N3=3)*(User_3!P3=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <f>SUM((User_1!N3=3)*(User_1!P3=1)) + SUM((User_2!N3=3)*(User_2!P3=1)) + SUM((User_3!N3=3)*(User_3!P3=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <f>COUNTIF(User_1!N3,2) + COUNTIF(User_2!N3,2) + COUNTIF(User_3!N3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <f>COUNTIF(User_1!N3,3) + COUNTIF(User_2!N3,3) + COUNTIF(User_3!N3,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <f>COUNTIF(User_1!N3,5) + COUNTIF(User_2!N3,5) + COUNTIF(User_3!N3,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="6">
-        <f>COUNTIF(User_1!N3,4) + COUNTIF(User_2!N3,4) + COUNTIF(User_3!N3,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>AVERAGE(User_1!Q3, User_2!Q3, User_3!Q3)</f>
-        <v>5.6836666666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7">
-        <f>COUNTIF(User_1!N4,1) + COUNTIF(User_2!N4,1) + COUNTIF(User_3!N4,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <f>COUNTIF(User_1!N4,0) + COUNTIF(User_2!N4,0) + COUNTIF(User_3!N4,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <f>SUM((User_1!N4=1)*(User_1!P4=3)) + SUM((User_2!N4=1)*(User_2!P4=3)) + SUM((User_3!N4=1)*(User_3!P4=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <f>SUM((User_1!N4=1)*(User_1!P4=2)) + SUM((User_2!N4=1)*(User_2!P4=2)) + SUM((User_3!N4=1)*(User_3!P4=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <f>SUM((User_1!N4=1)*(User_1!P4=1)) + SUM((User_2!N4=1)*(User_2!P4=1)) + SUM((User_3!N4=1)*(User_3!P4=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <f>SUM((User_1!N4=0)*(User_1!P4=3)) + SUM((User_2!N4=0)*(User_2!P4=3)) + SUM((User_3!N4=0)*(User_3!P4=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <f>SUM((User_1!N4=0)*(User_1!P4=2)) + SUM((User_2!N4=0)*(User_2!P4=2)) + SUM((User_3!N4=0)*(User_3!P4=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <f>SUM((User_1!N4=0)*(User_1!P4=1)) + SUM((User_2!N4=0)*(User_2!P4=1)) + SUM((User_3!N4=0)*(User_3!P4=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <f>SUM((User_1!N4=2)*(User_1!P4=3)) + SUM((User_2!N4=2)*(User_2!P4=3)) + SUM((User_3!N4=2)*(User_3!P4=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <f>SUM((User_1!N4=2)*(User_1!P4=2)) + SUM((User_2!N4=2)*(User_2!P4=2)) + SUM((User_3!N4=2)*(User_3!P4=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <f>SUM((User_1!N4=2)*(User_1!P4=1)) + SUM((User_2!N4=2)*(User_2!P4=1)) + SUM((User_3!N4=2)*(User_3!P4=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <f>SUM((User_1!N4=3)*(User_1!P4=3)) + SUM((User_2!N4=3)*(User_2!P4=3)) + SUM((User_3!N4=3)*(User_3!P4=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <f>SUM((User_1!N4=3)*(User_1!P4=2)) + SUM((User_2!N4=3)*(User_2!P4=2)) + SUM((User_3!N4=3)*(User_3!P4=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <f>SUM((User_1!N4=3)*(User_1!P4=1)) + SUM((User_2!N4=3)*(User_2!P4=1)) + SUM((User_3!N4=3)*(User_3!P4=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <f>COUNTIF(User_1!N4,2) + COUNTIF(User_2!N4,2) + COUNTIF(User_3!N4,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>COUNTIF(User_1!N4,3) + COUNTIF(User_2!N4,3) + COUNTIF(User_3!N4,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
-        <f>COUNTIF(User_1!N4,5) + COUNTIF(User_2!N4,5) + COUNTIF(User_3!N4,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <f>COUNTIF(User_1!N4,4) + COUNTIF(User_2!N4,4) + COUNTIF(User_3!N4,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>AVERAGE(User_1!Q4, User_2!Q4, User_3!Q4)</f>
-        <v>4.091333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7">
-        <f>COUNTIF(User_1!N5,1) + COUNTIF(User_2!N5,1) + COUNTIF(User_3!N5,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <f>COUNTIF(User_1!N5,0) + COUNTIF(User_2!N5,0) + COUNTIF(User_3!N5,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <f>SUM((User_1!N5=1)*(User_1!P5=3)) + SUM((User_2!N5=1)*(User_2!P5=3)) + SUM((User_3!N5=1)*(User_3!P5=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <f>SUM((User_1!N5=1)*(User_1!P5=2)) + SUM((User_2!N5=1)*(User_2!P5=2)) + SUM((User_3!N5=1)*(User_3!P5=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <f>SUM((User_1!N5=1)*(User_1!P5=1)) + SUM((User_2!N5=1)*(User_2!P5=1)) + SUM((User_3!N5=1)*(User_3!P5=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <f>SUM((User_1!N5=0)*(User_1!P5=3)) + SUM((User_2!N5=0)*(User_2!P5=3)) + SUM((User_3!N5=0)*(User_3!P5=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <f>SUM((User_1!N5=0)*(User_1!P5=2)) + SUM((User_2!N5=0)*(User_2!P5=2)) + SUM((User_3!N5=0)*(User_3!P5=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <f>SUM((User_1!N5=0)*(User_1!P5=1)) + SUM((User_2!N5=0)*(User_2!P5=1)) + SUM((User_3!N5=0)*(User_3!P5=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <f>SUM((User_1!N5=2)*(User_1!P5=3)) + SUM((User_2!N5=2)*(User_2!P5=3)) + SUM((User_3!N5=2)*(User_3!P5=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <f>SUM((User_1!N5=2)*(User_1!P5=2)) + SUM((User_2!N5=2)*(User_2!P5=2)) + SUM((User_3!N5=2)*(User_3!P5=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <f>SUM((User_1!N5=2)*(User_1!P5=1)) + SUM((User_2!N5=2)*(User_2!P5=1)) + SUM((User_3!N5=2)*(User_3!P5=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <f>SUM((User_1!N5=3)*(User_1!P5=3)) + SUM((User_2!N5=3)*(User_2!P5=3)) + SUM((User_3!N5=3)*(User_3!P5=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <f>SUM((User_1!N5=3)*(User_1!P5=2)) + SUM((User_2!N5=3)*(User_2!P5=2)) + SUM((User_3!N5=3)*(User_3!P5=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <f>SUM((User_1!N5=3)*(User_1!P5=1)) + SUM((User_2!N5=3)*(User_2!P5=1)) + SUM((User_3!N5=3)*(User_3!P5=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <f>COUNTIF(User_1!N5,2) + COUNTIF(User_2!N5,2) + COUNTIF(User_3!N5,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <f>COUNTIF(User_1!N5,3) + COUNTIF(User_2!N5,3) + COUNTIF(User_3!N5,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="6">
-        <f>COUNTIF(User_1!N5,5) + COUNTIF(User_2!N5,5) + COUNTIF(User_3!N5,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="6">
-        <f>COUNTIF(User_1!N5,4) + COUNTIF(User_2!N5,4) + COUNTIF(User_3!N5,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>AVERAGE(User_1!Q5, User_2!Q5, User_3!Q5)</f>
-        <v>5.6089999999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7">
-        <f>COUNTIF(User_1!N6,1) + COUNTIF(User_2!N6,1) + COUNTIF(User_3!N6,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="8">
-        <f>COUNTIF(User_1!N6,0) + COUNTIF(User_2!N6,0) + COUNTIF(User_3!N6,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <f>SUM((User_1!N6=1)*(User_1!P6=3)) + SUM((User_2!N6=1)*(User_2!P6=3)) + SUM((User_3!N6=1)*(User_3!P6=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <f>SUM((User_1!N6=1)*(User_1!P6=2)) + SUM((User_2!N6=1)*(User_2!P6=2)) + SUM((User_3!N6=1)*(User_3!P6=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <f>SUM((User_1!N6=1)*(User_1!P6=1)) + SUM((User_2!N6=1)*(User_2!P6=1)) + SUM((User_3!N6=1)*(User_3!P6=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <f>SUM((User_1!N6=0)*(User_1!P6=3)) + SUM((User_2!N6=0)*(User_2!P6=3)) + SUM((User_3!N6=0)*(User_3!P6=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f>SUM((User_1!N6=0)*(User_1!P6=2)) + SUM((User_2!N6=0)*(User_2!P6=2)) + SUM((User_3!N6=0)*(User_3!P6=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <f>SUM((User_1!N6=0)*(User_1!P6=1)) + SUM((User_2!N6=0)*(User_2!P6=1)) + SUM((User_3!N6=0)*(User_3!P6=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <f>SUM((User_1!N6=2)*(User_1!P6=3)) + SUM((User_2!N6=2)*(User_2!P6=3)) + SUM((User_3!N6=2)*(User_3!P6=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <f>SUM((User_1!N6=2)*(User_1!P6=2)) + SUM((User_2!N6=2)*(User_2!P6=2)) + SUM((User_3!N6=2)*(User_3!P6=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <f>SUM((User_1!N6=2)*(User_1!P6=1)) + SUM((User_2!N6=2)*(User_2!P6=1)) + SUM((User_3!N6=2)*(User_3!P6=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <f>SUM((User_1!N6=3)*(User_1!P6=3)) + SUM((User_2!N6=3)*(User_2!P6=3)) + SUM((User_3!N6=3)*(User_3!P6=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <f>SUM((User_1!N6=3)*(User_1!P6=2)) + SUM((User_2!N6=3)*(User_2!P6=2)) + SUM((User_3!N6=3)*(User_3!P6=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <f>SUM((User_1!N6=3)*(User_1!P6=1)) + SUM((User_2!N6=3)*(User_2!P6=1)) + SUM((User_3!N6=3)*(User_3!P6=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <f>COUNTIF(User_1!N6,2) + COUNTIF(User_2!N6,2) + COUNTIF(User_3!N6,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>COUNTIF(User_1!N6,3) + COUNTIF(User_2!N6,3) + COUNTIF(User_3!N6,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="6">
-        <f>COUNTIF(User_1!N6,5) + COUNTIF(User_2!N6,5) + COUNTIF(User_3!N6,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="6">
-        <f>COUNTIF(User_1!N6,4) + COUNTIF(User_2!N6,4) + COUNTIF(User_3!N6,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>AVERAGE(User_1!Q6, User_2!Q6, User_3!Q6)</f>
-        <v>5.6756666666666673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <f>COUNTIF(User_1!N7,1) + COUNTIF(User_2!N7,1) + COUNTIF(User_3!N7,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="8">
-        <f>COUNTIF(User_1!N7,0) + COUNTIF(User_2!N7,0) + COUNTIF(User_3!N7,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <f>SUM((User_1!N7=1)*(User_1!P7=3)) + SUM((User_2!N7=1)*(User_2!P7=3)) + SUM((User_3!N7=1)*(User_3!P7=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <f>SUM((User_1!N7=1)*(User_1!P7=2)) + SUM((User_2!N7=1)*(User_2!P7=2)) + SUM((User_3!N7=1)*(User_3!P7=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <f>SUM((User_1!N7=1)*(User_1!P7=1)) + SUM((User_2!N7=1)*(User_2!P7=1)) + SUM((User_3!N7=1)*(User_3!P7=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <f>SUM((User_1!N7=0)*(User_1!P7=3)) + SUM((User_2!N7=0)*(User_2!P7=3)) + SUM((User_3!N7=0)*(User_3!P7=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <f>SUM((User_1!N7=0)*(User_1!P7=2)) + SUM((User_2!N7=0)*(User_2!P7=2)) + SUM((User_3!N7=0)*(User_3!P7=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <f>SUM((User_1!N7=0)*(User_1!P7=1)) + SUM((User_2!N7=0)*(User_2!P7=1)) + SUM((User_3!N7=0)*(User_3!P7=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <f>SUM((User_1!N7=2)*(User_1!P7=3)) + SUM((User_2!N7=2)*(User_2!P7=3)) + SUM((User_3!N7=2)*(User_3!P7=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <f>SUM((User_1!N7=2)*(User_1!P7=2)) + SUM((User_2!N7=2)*(User_2!P7=2)) + SUM((User_3!N7=2)*(User_3!P7=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <f>SUM((User_1!N7=2)*(User_1!P7=1)) + SUM((User_2!N7=2)*(User_2!P7=1)) + SUM((User_3!N7=2)*(User_3!P7=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <f>SUM((User_1!N7=3)*(User_1!P7=3)) + SUM((User_2!N7=3)*(User_2!P7=3)) + SUM((User_3!N7=3)*(User_3!P7=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <f>SUM((User_1!N7=3)*(User_1!P7=2)) + SUM((User_2!N7=3)*(User_2!P7=2)) + SUM((User_3!N7=3)*(User_3!P7=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <f>SUM((User_1!N7=3)*(User_1!P7=1)) + SUM((User_2!N7=3)*(User_2!P7=1)) + SUM((User_3!N7=3)*(User_3!P7=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <f>COUNTIF(User_1!N7,2) + COUNTIF(User_2!N7,2) + COUNTIF(User_3!N7,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <f>COUNTIF(User_1!N7,3) + COUNTIF(User_2!N7,3) + COUNTIF(User_3!N7,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
-        <f>COUNTIF(User_1!N7,5) + COUNTIF(User_2!N7,5) + COUNTIF(User_3!N7,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="6">
-        <f>COUNTIF(User_1!N7,4) + COUNTIF(User_2!N7,4) + COUNTIF(User_3!N7,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>AVERAGE(User_1!Q7, User_2!Q7, User_3!Q7)</f>
-        <v>2.4953333333333334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <f>COUNTIF(User_1!N8,1) + COUNTIF(User_2!N8,1) + COUNTIF(User_3!N8,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="8">
-        <f>COUNTIF(User_1!N8,0) + COUNTIF(User_2!N8,0) + COUNTIF(User_3!N8,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="7">
-        <f>SUM((User_1!N8=1)*(User_1!P8=3)) + SUM((User_2!N8=1)*(User_2!P8=3)) + SUM((User_3!N8=1)*(User_3!P8=3))</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <f>SUM((User_1!N8=1)*(User_1!P8=2)) + SUM((User_2!N8=1)*(User_2!P8=2)) + SUM((User_3!N8=1)*(User_3!P8=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <f>SUM((User_1!N8=1)*(User_1!P8=1)) + SUM((User_2!N8=1)*(User_2!P8=1)) + SUM((User_3!N8=1)*(User_3!P8=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <f>SUM((User_1!N8=0)*(User_1!P8=3)) + SUM((User_2!N8=0)*(User_2!P8=3)) + SUM((User_3!N8=0)*(User_3!P8=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <f>SUM((User_1!N8=0)*(User_1!P8=2)) + SUM((User_2!N8=0)*(User_2!P8=2)) + SUM((User_3!N8=0)*(User_3!P8=2))</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="8">
-        <f>SUM((User_1!N8=0)*(User_1!P8=1)) + SUM((User_2!N8=0)*(User_2!P8=1)) + SUM((User_3!N8=0)*(User_3!P8=1))</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <f>SUM((User_1!N8=2)*(User_1!P8=3)) + SUM((User_2!N8=2)*(User_2!P8=3)) + SUM((User_3!N8=2)*(User_3!P8=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <f>SUM((User_1!N8=2)*(User_1!P8=2)) + SUM((User_2!N8=2)*(User_2!P8=2)) + SUM((User_3!N8=2)*(User_3!P8=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <f>SUM((User_1!N8=2)*(User_1!P8=1)) + SUM((User_2!N8=2)*(User_2!P8=1)) + SUM((User_3!N8=2)*(User_3!P8=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <f>SUM((User_1!N8=3)*(User_1!P8=3)) + SUM((User_2!N8=3)*(User_2!P8=3)) + SUM((User_3!N8=3)*(User_3!P8=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <f>SUM((User_1!N8=3)*(User_1!P8=2)) + SUM((User_2!N8=3)*(User_2!P8=2)) + SUM((User_3!N8=3)*(User_3!P8=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <f>SUM((User_1!N8=3)*(User_1!P8=1)) + SUM((User_2!N8=3)*(User_2!P8=1)) + SUM((User_3!N8=3)*(User_3!P8=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <f>COUNTIF(User_1!N8,2) + COUNTIF(User_2!N8,2) + COUNTIF(User_3!N8,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <f>COUNTIF(User_1!N8,3) + COUNTIF(User_2!N8,3) + COUNTIF(User_3!N8,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <f>COUNTIF(User_1!N8,5) + COUNTIF(User_2!N8,5) + COUNTIF(User_3!N8,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <f>COUNTIF(User_1!N8,4) + COUNTIF(User_2!N8,4) + COUNTIF(User_3!N8,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>AVERAGE(User_1!Q8, User_2!Q8, User_3!Q8)</f>
-        <v>8.9216666666666669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7">
-        <f>COUNTIF(User_1!N9,1) + COUNTIF(User_2!N9,1) + COUNTIF(User_3!N9,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <f>COUNTIF(User_1!N9,0) + COUNTIF(User_2!N9,0) + COUNTIF(User_3!N9,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
-        <f>SUM((User_1!N9=1)*(User_1!P9=3)) + SUM((User_2!N9=1)*(User_2!P9=3)) + SUM((User_3!N9=1)*(User_3!P9=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <f>SUM((User_1!N9=1)*(User_1!P9=2)) + SUM((User_2!N9=1)*(User_2!P9=2)) + SUM((User_3!N9=1)*(User_3!P9=2))</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
-        <f>SUM((User_1!N9=1)*(User_1!P9=1)) + SUM((User_2!N9=1)*(User_2!P9=1)) + SUM((User_3!N9=1)*(User_3!P9=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <f>SUM((User_1!N9=0)*(User_1!P9=3)) + SUM((User_2!N9=0)*(User_2!P9=3)) + SUM((User_3!N9=0)*(User_3!P9=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <f>SUM((User_1!N9=0)*(User_1!P9=2)) + SUM((User_2!N9=0)*(User_2!P9=2)) + SUM((User_3!N9=0)*(User_3!P9=2))</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <f>SUM((User_1!N9=0)*(User_1!P9=1)) + SUM((User_2!N9=0)*(User_2!P9=1)) + SUM((User_3!N9=0)*(User_3!P9=1))</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <f>SUM((User_1!N9=2)*(User_1!P9=3)) + SUM((User_2!N9=2)*(User_2!P9=3)) + SUM((User_3!N9=2)*(User_3!P9=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <f>SUM((User_1!N9=2)*(User_1!P9=2)) + SUM((User_2!N9=2)*(User_2!P9=2)) + SUM((User_3!N9=2)*(User_3!P9=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <f>SUM((User_1!N9=2)*(User_1!P9=1)) + SUM((User_2!N9=2)*(User_2!P9=1)) + SUM((User_3!N9=2)*(User_3!P9=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <f>SUM((User_1!N9=3)*(User_1!P9=3)) + SUM((User_2!N9=3)*(User_2!P9=3)) + SUM((User_3!N9=3)*(User_3!P9=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <f>SUM((User_1!N9=3)*(User_1!P9=2)) + SUM((User_2!N9=3)*(User_2!P9=2)) + SUM((User_3!N9=3)*(User_3!P9=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <f>SUM((User_1!N9=3)*(User_1!P9=1)) + SUM((User_2!N9=3)*(User_2!P9=1)) + SUM((User_3!N9=3)*(User_3!P9=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <f>COUNTIF(User_1!N9,2) + COUNTIF(User_2!N9,2) + COUNTIF(User_3!N9,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <f>COUNTIF(User_1!N9,3) + COUNTIF(User_2!N9,3) + COUNTIF(User_3!N9,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <f>COUNTIF(User_1!N9,5) + COUNTIF(User_2!N9,5) + COUNTIF(User_3!N9,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <f>COUNTIF(User_1!N9,4) + COUNTIF(User_2!N9,4) + COUNTIF(User_3!N9,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f>AVERAGE(User_1!Q9, User_2!Q9, User_3!Q9)</f>
-        <v>13.772666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7">
-        <f>COUNTIF(User_1!N10,1) + COUNTIF(User_2!N10,1) + COUNTIF(User_3!N10,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C10" s="8">
-        <f>COUNTIF(User_1!N10,0) + COUNTIF(User_2!N10,0) + COUNTIF(User_3!N10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <f>SUM((User_1!N10=1)*(User_1!P10=3)) + SUM((User_2!N10=1)*(User_2!P10=3)) + SUM((User_3!N10=1)*(User_3!P10=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <f>SUM((User_1!N10=1)*(User_1!P10=2)) + SUM((User_2!N10=1)*(User_2!P10=2)) + SUM((User_3!N10=1)*(User_3!P10=2))</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <f>SUM((User_1!N10=1)*(User_1!P10=1)) + SUM((User_2!N10=1)*(User_2!P10=1)) + SUM((User_3!N10=1)*(User_3!P10=1))</f>
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <f>SUM((User_1!N10=0)*(User_1!P10=3)) + SUM((User_2!N10=0)*(User_2!P10=3)) + SUM((User_3!N10=0)*(User_3!P10=3))</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <f>SUM((User_1!N10=0)*(User_1!P10=2)) + SUM((User_2!N10=0)*(User_2!P10=2)) + SUM((User_3!N10=0)*(User_3!P10=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <f>SUM((User_1!N10=0)*(User_1!P10=1)) + SUM((User_2!N10=0)*(User_2!P10=1)) + SUM((User_3!N10=0)*(User_3!P10=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <f>SUM((User_1!N10=2)*(User_1!P10=3)) + SUM((User_2!N10=2)*(User_2!P10=3)) + SUM((User_3!N10=2)*(User_3!P10=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <f>SUM((User_1!N10=2)*(User_1!P10=2)) + SUM((User_2!N10=2)*(User_2!P10=2)) + SUM((User_3!N10=2)*(User_3!P10=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <f>SUM((User_1!N10=2)*(User_1!P10=1)) + SUM((User_2!N10=2)*(User_2!P10=1)) + SUM((User_3!N10=2)*(User_3!P10=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <f>SUM((User_1!N10=3)*(User_1!P10=3)) + SUM((User_2!N10=3)*(User_2!P10=3)) + SUM((User_3!N10=3)*(User_3!P10=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <f>SUM((User_1!N10=3)*(User_1!P10=2)) + SUM((User_2!N10=3)*(User_2!P10=2)) + SUM((User_3!N10=3)*(User_3!P10=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <f>SUM((User_1!N10=3)*(User_1!P10=1)) + SUM((User_2!N10=3)*(User_2!P10=1)) + SUM((User_3!N10=3)*(User_3!P10=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
-        <f>COUNTIF(User_1!N10,2) + COUNTIF(User_2!N10,2) + COUNTIF(User_3!N10,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f>COUNTIF(User_1!N10,3) + COUNTIF(User_2!N10,3) + COUNTIF(User_3!N10,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <f>COUNTIF(User_1!N10,5) + COUNTIF(User_2!N10,5) + COUNTIF(User_3!N10,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="9">
-        <f>COUNTIF(User_1!N10,4) + COUNTIF(User_2!N10,4) + COUNTIF(User_3!N10,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f>AVERAGE(User_1!Q10, User_2!Q10, User_3!Q10)</f>
-        <v>12.378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7">
-        <f>COUNTIF(User_1!N11,1) + COUNTIF(User_2!N11,1) + COUNTIF(User_3!N11,1)</f>
-        <v>2</v>
-      </c>
-      <c r="C11" s="8">
-        <f>COUNTIF(User_1!N11,0) + COUNTIF(User_2!N11,0) + COUNTIF(User_3!N11,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <f>SUM((User_1!N11=1)*(User_1!P11=3)) + SUM((User_2!N11=1)*(User_2!P11=3)) + SUM((User_3!N11=1)*(User_3!P11=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <f>SUM((User_1!N11=1)*(User_1!P11=2)) + SUM((User_2!N11=1)*(User_2!P11=2)) + SUM((User_3!N11=1)*(User_3!P11=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <f>SUM((User_1!N11=1)*(User_1!P11=1)) + SUM((User_2!N11=1)*(User_2!P11=1)) + SUM((User_3!N11=1)*(User_3!P11=1))</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="8">
-        <f>SUM((User_1!N11=0)*(User_1!P11=3)) + SUM((User_2!N11=0)*(User_2!P11=3)) + SUM((User_3!N11=0)*(User_3!P11=3))</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="9">
-        <f>SUM((User_1!N11=0)*(User_1!P11=2)) + SUM((User_2!N11=0)*(User_2!P11=2)) + SUM((User_3!N11=0)*(User_3!P11=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <f>SUM((User_1!N11=0)*(User_1!P11=1)) + SUM((User_2!N11=0)*(User_2!P11=1)) + SUM((User_3!N11=0)*(User_3!P11=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <f>SUM((User_1!N11=2)*(User_1!P11=3)) + SUM((User_2!N11=2)*(User_2!P11=3)) + SUM((User_3!N11=2)*(User_3!P11=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <f>SUM((User_1!N11=2)*(User_1!P11=2)) + SUM((User_2!N11=2)*(User_2!P11=2)) + SUM((User_3!N11=2)*(User_3!P11=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <f>SUM((User_1!N11=2)*(User_1!P11=1)) + SUM((User_2!N11=2)*(User_2!P11=1)) + SUM((User_3!N11=2)*(User_3!P11=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <f>SUM((User_1!N11=3)*(User_1!P11=3)) + SUM((User_2!N11=3)*(User_2!P11=3)) + SUM((User_3!N11=3)*(User_3!P11=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <f>SUM((User_1!N11=3)*(User_1!P11=2)) + SUM((User_2!N11=3)*(User_2!P11=2)) + SUM((User_3!N11=3)*(User_3!P11=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <f>SUM((User_1!N11=3)*(User_1!P11=1)) + SUM((User_2!N11=3)*(User_2!P11=1)) + SUM((User_3!N11=3)*(User_3!P11=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
-        <f>COUNTIF(User_1!N11,2) + COUNTIF(User_2!N11,2) + COUNTIF(User_3!N11,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <f>COUNTIF(User_1!N11,3) + COUNTIF(User_2!N11,3) + COUNTIF(User_3!N11,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <f>COUNTIF(User_1!N11,5) + COUNTIF(User_2!N11,5) + COUNTIF(User_3!N11,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <f>COUNTIF(User_1!N11,4) + COUNTIF(User_2!N11,4) + COUNTIF(User_3!N11,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f>AVERAGE(User_1!Q11, User_2!Q11, User_3!Q11)</f>
-        <v>12.561999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <f>COUNTIF(User_1!N12,1) + COUNTIF(User_2!N12,1) + COUNTIF(User_3!N12,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C12" s="8">
-        <f>COUNTIF(User_1!N12,0) + COUNTIF(User_2!N12,0) + COUNTIF(User_3!N12,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D12" s="9">
-        <f>SUM((User_1!N12=1)*(User_1!P12=3)) + SUM((User_2!N12=1)*(User_2!P12=3)) + SUM((User_3!N12=1)*(User_3!P12=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <f>SUM((User_1!N12=1)*(User_1!P12=2)) + SUM((User_2!N12=1)*(User_2!P12=2)) + SUM((User_3!N12=1)*(User_3!P12=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <f>SUM((User_1!N12=1)*(User_1!P12=1)) + SUM((User_2!N12=1)*(User_2!P12=1)) + SUM((User_3!N12=1)*(User_3!P12=1))</f>
-        <v>1</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM((User_1!N12=0)*(User_1!P12=3)) + SUM((User_2!N12=0)*(User_2!P12=3)) + SUM((User_3!N12=0)*(User_3!P12=3))</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <f>SUM((User_1!N12=0)*(User_1!P12=2)) + SUM((User_2!N12=0)*(User_2!P12=2)) + SUM((User_3!N12=0)*(User_3!P12=2))</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="9">
-        <f>SUM((User_1!N12=0)*(User_1!P12=1)) + SUM((User_2!N12=0)*(User_2!P12=1)) + SUM((User_3!N12=0)*(User_3!P12=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <f>SUM((User_1!N12=2)*(User_1!P12=3)) + SUM((User_2!N12=2)*(User_2!P12=3)) + SUM((User_3!N12=2)*(User_3!P12=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <f>SUM((User_1!N12=2)*(User_1!P12=2)) + SUM((User_2!N12=2)*(User_2!P12=2)) + SUM((User_3!N12=2)*(User_3!P12=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <f>SUM((User_1!N12=2)*(User_1!P12=1)) + SUM((User_2!N12=2)*(User_2!P12=1)) + SUM((User_3!N12=2)*(User_3!P12=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <f>SUM((User_1!N12=3)*(User_1!P12=3)) + SUM((User_2!N12=3)*(User_2!P12=3)) + SUM((User_3!N12=3)*(User_3!P12=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <f>SUM((User_1!N12=3)*(User_1!P12=2)) + SUM((User_2!N12=3)*(User_2!P12=2)) + SUM((User_3!N12=3)*(User_3!P12=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <f>SUM((User_1!N12=3)*(User_1!P12=1)) + SUM((User_2!N12=3)*(User_2!P12=1)) + SUM((User_3!N12=3)*(User_3!P12=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
-        <f>COUNTIF(User_1!N12,2) + COUNTIF(User_2!N12,2) + COUNTIF(User_3!N12,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9">
-        <f>COUNTIF(User_1!N12,3) + COUNTIF(User_2!N12,3) + COUNTIF(User_3!N12,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <f>COUNTIF(User_1!N12,5) + COUNTIF(User_2!N12,5) + COUNTIF(User_3!N12,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="9">
-        <f>COUNTIF(User_1!N12,4) + COUNTIF(User_2!N12,4) + COUNTIF(User_3!N12,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>AVERAGE(User_1!Q12, User_2!Q12, User_3!Q12)</f>
-        <v>9.9099999999999984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7">
-        <f>COUNTIF(User_1!N13,1) + COUNTIF(User_2!N13,1) + COUNTIF(User_3!N13,1)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="8">
-        <f>COUNTIF(User_1!N13,0) + COUNTIF(User_2!N13,0) + COUNTIF(User_3!N13,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <f>SUM((User_1!N13=1)*(User_1!P13=3)) + SUM((User_2!N13=1)*(User_2!P13=3)) + SUM((User_3!N13=1)*(User_3!P13=3))</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
-        <f>SUM((User_1!N13=1)*(User_1!P13=2)) + SUM((User_2!N13=1)*(User_2!P13=2)) + SUM((User_3!N13=1)*(User_3!P13=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <f>SUM((User_1!N13=1)*(User_1!P13=1)) + SUM((User_2!N13=1)*(User_2!P13=1)) + SUM((User_3!N13=1)*(User_3!P13=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f>SUM((User_1!N13=0)*(User_1!P13=3)) + SUM((User_2!N13=0)*(User_2!P13=3)) + SUM((User_3!N13=0)*(User_3!P13=3))</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <f>SUM((User_1!N13=0)*(User_1!P13=2)) + SUM((User_2!N13=0)*(User_2!P13=2)) + SUM((User_3!N13=0)*(User_3!P13=2))</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="9">
-        <f>SUM((User_1!N13=0)*(User_1!P13=1)) + SUM((User_2!N13=0)*(User_2!P13=1)) + SUM((User_3!N13=0)*(User_3!P13=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <f>SUM((User_1!N13=2)*(User_1!P13=3)) + SUM((User_2!N13=2)*(User_2!P13=3)) + SUM((User_3!N13=2)*(User_3!P13=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <f>SUM((User_1!N13=2)*(User_1!P13=2)) + SUM((User_2!N13=2)*(User_2!P13=2)) + SUM((User_3!N13=2)*(User_3!P13=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <f>SUM((User_1!N13=2)*(User_1!P13=1)) + SUM((User_2!N13=2)*(User_2!P13=1)) + SUM((User_3!N13=2)*(User_3!P13=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <f>SUM((User_1!N13=3)*(User_1!P13=3)) + SUM((User_2!N13=3)*(User_2!P13=3)) + SUM((User_3!N13=3)*(User_3!P13=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <f>SUM((User_1!N13=3)*(User_1!P13=2)) + SUM((User_2!N13=3)*(User_2!P13=2)) + SUM((User_3!N13=3)*(User_3!P13=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <f>SUM((User_1!N13=3)*(User_1!P13=1)) + SUM((User_2!N13=3)*(User_2!P13=1)) + SUM((User_3!N13=3)*(User_3!P13=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
-        <f>COUNTIF(User_1!N13,2) + COUNTIF(User_2!N13,2) + COUNTIF(User_3!N13,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="9">
-        <f>COUNTIF(User_1!N13,3) + COUNTIF(User_2!N13,3) + COUNTIF(User_3!N13,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="9">
-        <f>COUNTIF(User_1!N13,5) + COUNTIF(User_2!N13,5) + COUNTIF(User_3!N13,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <f>COUNTIF(User_1!N13,4) + COUNTIF(User_2!N13,4) + COUNTIF(User_3!N13,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f>AVERAGE(User_1!Q13, User_2!Q13, User_3!Q13)</f>
-        <v>7.780666666666666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10">
-        <f>COUNTIF(User_1!N14,1) + COUNTIF(User_2!N14,1) + COUNTIF(User_3!N14,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
-        <f>COUNTIF(User_1!N14,0) + COUNTIF(User_2!N14,0) + COUNTIF(User_3!N14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
-        <f>SUM((User_1!N14=1)*(User_1!P14=3)) + SUM((User_2!N14=1)*(User_2!P14=3)) + SUM((User_3!N14=1)*(User_3!P14=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <f>SUM((User_1!N14=1)*(User_1!P14=2)) + SUM((User_2!N14=1)*(User_2!P14=2)) + SUM((User_3!N14=1)*(User_3!P14=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <f>SUM((User_1!N14=1)*(User_1!P14=1)) + SUM((User_2!N14=1)*(User_2!P14=1)) + SUM((User_3!N14=1)*(User_3!P14=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM((User_1!N14=0)*(User_1!P14=3)) + SUM((User_2!N14=0)*(User_2!P14=3)) + SUM((User_3!N14=0)*(User_3!P14=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <f>SUM((User_1!N14=0)*(User_1!P14=2)) + SUM((User_2!N14=0)*(User_2!P14=2)) + SUM((User_3!N14=0)*(User_3!P14=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="10">
-        <f>SUM((User_1!N14=0)*(User_1!P14=1)) + SUM((User_2!N14=0)*(User_2!P14=1)) + SUM((User_3!N14=0)*(User_3!P14=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <f>SUM((User_1!N14=2)*(User_1!P14=3)) + SUM((User_2!N14=2)*(User_2!P14=3)) + SUM((User_3!N14=2)*(User_3!P14=3))</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <f>SUM((User_1!N14=2)*(User_1!P14=2)) + SUM((User_2!N14=2)*(User_2!P14=2)) + SUM((User_3!N14=2)*(User_3!P14=2))</f>
-        <v>1</v>
-      </c>
-      <c r="L14" s="10">
-        <f>SUM((User_1!N14=2)*(User_1!P14=1)) + SUM((User_2!N14=2)*(User_2!P14=1)) + SUM((User_3!N14=2)*(User_3!P14=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <f>SUM((User_1!N14=3)*(User_1!P14=3)) + SUM((User_2!N14=3)*(User_2!P14=3)) + SUM((User_3!N14=3)*(User_3!P14=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
-        <f>SUM((User_1!N14=3)*(User_1!P14=2)) + SUM((User_2!N14=3)*(User_2!P14=2)) + SUM((User_3!N14=3)*(User_3!P14=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <f>SUM((User_1!N14=3)*(User_1!P14=1)) + SUM((User_2!N14=3)*(User_2!P14=1)) + SUM((User_3!N14=3)*(User_3!P14=1))</f>
-        <v>1</v>
-      </c>
-      <c r="P14" s="7">
-        <f>COUNTIF(User_1!N14,2) + COUNTIF(User_2!N14,2) + COUNTIF(User_3!N14,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Q14" s="8">
-        <f>COUNTIF(User_1!N14,3) + COUNTIF(User_2!N14,3) + COUNTIF(User_3!N14,3)</f>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
-        <f>COUNTIF(User_1!N14,5) + COUNTIF(User_2!N14,5) + COUNTIF(User_3!N14,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <f>COUNTIF(User_1!N14,4) + COUNTIF(User_2!N14,4) + COUNTIF(User_3!N14,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f>AVERAGE(User_1!Q14, User_2!Q14, User_3!Q14)</f>
-        <v>9.9683333333333337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10">
-        <f>COUNTIF(User_1!N15,1) + COUNTIF(User_2!N15,1) + COUNTIF(User_3!N15,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
-        <f>COUNTIF(User_1!N15,0) + COUNTIF(User_2!N15,0) + COUNTIF(User_3!N15,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <f>SUM((User_1!N15=1)*(User_1!P15=3)) + SUM((User_2!N15=1)*(User_2!P15=3)) + SUM((User_3!N15=1)*(User_3!P15=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <f>SUM((User_1!N15=1)*(User_1!P15=2)) + SUM((User_2!N15=1)*(User_2!P15=2)) + SUM((User_3!N15=1)*(User_3!P15=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <f>SUM((User_1!N15=1)*(User_1!P15=1)) + SUM((User_2!N15=1)*(User_2!P15=1)) + SUM((User_3!N15=1)*(User_3!P15=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <f>SUM((User_1!N15=0)*(User_1!P15=3)) + SUM((User_2!N15=0)*(User_2!P15=3)) + SUM((User_3!N15=0)*(User_3!P15=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10">
-        <f>SUM((User_1!N15=0)*(User_1!P15=2)) + SUM((User_2!N15=0)*(User_2!P15=2)) + SUM((User_3!N15=0)*(User_3!P15=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="10">
-        <f>SUM((User_1!N15=0)*(User_1!P15=1)) + SUM((User_2!N15=0)*(User_2!P15=1)) + SUM((User_3!N15=0)*(User_3!P15=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="10">
-        <f>SUM((User_1!N15=2)*(User_1!P15=3)) + SUM((User_2!N15=2)*(User_2!P15=3)) + SUM((User_3!N15=2)*(User_3!P15=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <f>SUM((User_1!N15=2)*(User_1!P15=2)) + SUM((User_2!N15=2)*(User_2!P15=2)) + SUM((User_3!N15=2)*(User_3!P15=2))</f>
-        <v>2</v>
-      </c>
-      <c r="L15" s="10">
-        <f>SUM((User_1!N15=2)*(User_1!P15=1)) + SUM((User_2!N15=2)*(User_2!P15=1)) + SUM((User_3!N15=2)*(User_3!P15=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <f>SUM((User_1!N15=3)*(User_1!P15=3)) + SUM((User_2!N15=3)*(User_2!P15=3)) + SUM((User_3!N15=3)*(User_3!P15=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <f>SUM((User_1!N15=3)*(User_1!P15=2)) + SUM((User_2!N15=3)*(User_2!P15=2)) + SUM((User_3!N15=3)*(User_3!P15=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <f>SUM((User_1!N15=3)*(User_1!P15=1)) + SUM((User_2!N15=3)*(User_2!P15=1)) + SUM((User_3!N15=3)*(User_3!P15=1))</f>
-        <v>1</v>
-      </c>
-      <c r="P15" s="7">
-        <f>COUNTIF(User_1!N15,2) + COUNTIF(User_2!N15,2) + COUNTIF(User_3!N15,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Q15" s="8">
-        <f>COUNTIF(User_1!N15,3) + COUNTIF(User_2!N15,3) + COUNTIF(User_3!N15,3)</f>
-        <v>1</v>
-      </c>
-      <c r="R15" s="10">
-        <f>COUNTIF(User_1!N15,5) + COUNTIF(User_2!N15,5) + COUNTIF(User_3!N15,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="10">
-        <f>COUNTIF(User_1!N15,4) + COUNTIF(User_2!N15,4) + COUNTIF(User_3!N15,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f>AVERAGE(User_1!Q15, User_2!Q15, User_3!Q15)</f>
-        <v>7.280333333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="10">
-        <f>COUNTIF(User_1!N16,1) + COUNTIF(User_2!N16,1) + COUNTIF(User_3!N16,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="10">
-        <f>COUNTIF(User_1!N16,0) + COUNTIF(User_2!N16,0) + COUNTIF(User_3!N16,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="10">
-        <f>SUM((User_1!N16=1)*(User_1!P16=3)) + SUM((User_2!N16=1)*(User_2!P16=3)) + SUM((User_3!N16=1)*(User_3!P16=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <f>SUM((User_1!N16=1)*(User_1!P16=2)) + SUM((User_2!N16=1)*(User_2!P16=2)) + SUM((User_3!N16=1)*(User_3!P16=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <f>SUM((User_1!N16=1)*(User_1!P16=1)) + SUM((User_2!N16=1)*(User_2!P16=1)) + SUM((User_3!N16=1)*(User_3!P16=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM((User_1!N16=0)*(User_1!P16=3)) + SUM((User_2!N16=0)*(User_2!P16=3)) + SUM((User_3!N16=0)*(User_3!P16=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <f>SUM((User_1!N16=0)*(User_1!P16=2)) + SUM((User_2!N16=0)*(User_2!P16=2)) + SUM((User_3!N16=0)*(User_3!P16=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <f>SUM((User_1!N16=0)*(User_1!P16=1)) + SUM((User_2!N16=0)*(User_2!P16=1)) + SUM((User_3!N16=0)*(User_3!P16=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="10">
-        <f>SUM((User_1!N16=2)*(User_1!P16=3)) + SUM((User_2!N16=2)*(User_2!P16=3)) + SUM((User_3!N16=2)*(User_3!P16=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <f>SUM((User_1!N16=2)*(User_1!P16=2)) + SUM((User_2!N16=2)*(User_2!P16=2)) + SUM((User_3!N16=2)*(User_3!P16=2))</f>
-        <v>1</v>
-      </c>
-      <c r="L16" s="10">
-        <f>SUM((User_1!N16=2)*(User_1!P16=1)) + SUM((User_2!N16=2)*(User_2!P16=1)) + SUM((User_3!N16=2)*(User_3!P16=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <f>SUM((User_1!N16=3)*(User_1!P16=3)) + SUM((User_2!N16=3)*(User_2!P16=3)) + SUM((User_3!N16=3)*(User_3!P16=3))</f>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
-        <f>SUM((User_1!N16=3)*(User_1!P16=2)) + SUM((User_2!N16=3)*(User_2!P16=2)) + SUM((User_3!N16=3)*(User_3!P16=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <f>SUM((User_1!N16=3)*(User_1!P16=1)) + SUM((User_2!N16=3)*(User_2!P16=1)) + SUM((User_3!N16=3)*(User_3!P16=1))</f>
-        <v>1</v>
-      </c>
-      <c r="P16" s="7">
-        <f>COUNTIF(User_1!N16,2) + COUNTIF(User_2!N16,2) + COUNTIF(User_3!N16,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="8">
-        <f>COUNTIF(User_1!N16,3) + COUNTIF(User_2!N16,3) + COUNTIF(User_3!N16,3)</f>
-        <v>2</v>
-      </c>
-      <c r="R16" s="10">
-        <f>COUNTIF(User_1!N16,5) + COUNTIF(User_2!N16,5) + COUNTIF(User_3!N16,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <f>COUNTIF(User_1!N16,4) + COUNTIF(User_2!N16,4) + COUNTIF(User_3!N16,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f>AVERAGE(User_1!Q16, User_2!Q16, User_3!Q16)</f>
-        <v>10.926666666666668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="10">
-        <f>COUNTIF(User_1!N17,1) + COUNTIF(User_2!N17,1) + COUNTIF(User_3!N17,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="10">
-        <f>COUNTIF(User_1!N17,0) + COUNTIF(User_2!N17,0) + COUNTIF(User_3!N17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <f>SUM((User_1!N17=1)*(User_1!P17=3)) + SUM((User_2!N17=1)*(User_2!P17=3)) + SUM((User_3!N17=1)*(User_3!P17=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <f>SUM((User_1!N17=1)*(User_1!P17=2)) + SUM((User_2!N17=1)*(User_2!P17=2)) + SUM((User_3!N17=1)*(User_3!P17=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <f>SUM((User_1!N17=1)*(User_1!P17=1)) + SUM((User_2!N17=1)*(User_2!P17=1)) + SUM((User_3!N17=1)*(User_3!P17=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <f>SUM((User_1!N17=0)*(User_1!P17=3)) + SUM((User_2!N17=0)*(User_2!P17=3)) + SUM((User_3!N17=0)*(User_3!P17=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <f>SUM((User_1!N17=0)*(User_1!P17=2)) + SUM((User_2!N17=0)*(User_2!P17=2)) + SUM((User_3!N17=0)*(User_3!P17=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="10">
-        <f>SUM((User_1!N17=0)*(User_1!P17=1)) + SUM((User_2!N17=0)*(User_2!P17=1)) + SUM((User_3!N17=0)*(User_3!P17=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
-        <f>SUM((User_1!N17=2)*(User_1!P17=3)) + SUM((User_2!N17=2)*(User_2!P17=3)) + SUM((User_3!N17=2)*(User_3!P17=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="10">
-        <f>SUM((User_1!N17=2)*(User_1!P17=2)) + SUM((User_2!N17=2)*(User_2!P17=2)) + SUM((User_3!N17=2)*(User_3!P17=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <f>SUM((User_1!N17=2)*(User_1!P17=1)) + SUM((User_2!N17=2)*(User_2!P17=1)) + SUM((User_3!N17=2)*(User_3!P17=1))</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
-        <f>SUM((User_1!N17=3)*(User_1!P17=3)) + SUM((User_2!N17=3)*(User_2!P17=3)) + SUM((User_3!N17=3)*(User_3!P17=3))</f>
-        <v>1</v>
-      </c>
-      <c r="N17" s="10">
-        <f>SUM((User_1!N17=3)*(User_1!P17=2)) + SUM((User_2!N17=3)*(User_2!P17=2)) + SUM((User_3!N17=3)*(User_3!P17=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <f>SUM((User_1!N17=3)*(User_1!P17=1)) + SUM((User_2!N17=3)*(User_2!P17=1)) + SUM((User_3!N17=3)*(User_3!P17=1))</f>
-        <v>1</v>
-      </c>
-      <c r="P17" s="7">
-        <f>COUNTIF(User_1!N17,2) + COUNTIF(User_2!N17,2) + COUNTIF(User_3!N17,2)</f>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="8">
-        <f>COUNTIF(User_1!N17,3) + COUNTIF(User_2!N17,3) + COUNTIF(User_3!N17,3)</f>
-        <v>2</v>
-      </c>
-      <c r="R17" s="10">
-        <f>COUNTIF(User_1!N17,5) + COUNTIF(User_2!N17,5) + COUNTIF(User_3!N17,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="10">
-        <f>COUNTIF(User_1!N17,4) + COUNTIF(User_2!N17,4) + COUNTIF(User_3!N17,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f>AVERAGE(User_1!Q17, User_2!Q17, User_3!Q17)</f>
-        <v>8.2989999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10">
-        <f>COUNTIF(User_1!N18,1) + COUNTIF(User_2!N18,1) + COUNTIF(User_3!N18,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="10">
-        <f>COUNTIF(User_1!N18,0) + COUNTIF(User_2!N18,0) + COUNTIF(User_3!N18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <f>SUM((User_1!N18=1)*(User_1!P18=3)) + SUM((User_2!N18=1)*(User_2!P18=3)) + SUM((User_3!N18=1)*(User_3!P18=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <f>SUM((User_1!N18=1)*(User_1!P18=2)) + SUM((User_2!N18=1)*(User_2!P18=2)) + SUM((User_3!N18=1)*(User_3!P18=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <f>SUM((User_1!N18=1)*(User_1!P18=1)) + SUM((User_2!N18=1)*(User_2!P18=1)) + SUM((User_3!N18=1)*(User_3!P18=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM((User_1!N18=0)*(User_1!P18=3)) + SUM((User_2!N18=0)*(User_2!P18=3)) + SUM((User_3!N18=0)*(User_3!P18=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM((User_1!N18=0)*(User_1!P18=2)) + SUM((User_2!N18=0)*(User_2!P18=2)) + SUM((User_3!N18=0)*(User_3!P18=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
-        <f>SUM((User_1!N18=0)*(User_1!P18=1)) + SUM((User_2!N18=0)*(User_2!P18=1)) + SUM((User_3!N18=0)*(User_3!P18=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <f>SUM((User_1!N18=2)*(User_1!P18=3)) + SUM((User_2!N18=2)*(User_2!P18=3)) + SUM((User_3!N18=2)*(User_3!P18=3))</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="10">
-        <f>SUM((User_1!N18=2)*(User_1!P18=2)) + SUM((User_2!N18=2)*(User_2!P18=2)) + SUM((User_3!N18=2)*(User_3!P18=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <f>SUM((User_1!N18=2)*(User_1!P18=1)) + SUM((User_2!N18=2)*(User_2!P18=1)) + SUM((User_3!N18=2)*(User_3!P18=1))</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="10">
-        <f>SUM((User_1!N18=3)*(User_1!P18=3)) + SUM((User_2!N18=3)*(User_2!P18=3)) + SUM((User_3!N18=3)*(User_3!P18=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <f>SUM((User_1!N18=3)*(User_1!P18=2)) + SUM((User_2!N18=3)*(User_2!P18=2)) + SUM((User_3!N18=3)*(User_3!P18=2))</f>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
-        <f>SUM((User_1!N18=3)*(User_1!P18=1)) + SUM((User_2!N18=3)*(User_2!P18=1)) + SUM((User_3!N18=3)*(User_3!P18=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <f>COUNTIF(User_1!N18,2) + COUNTIF(User_2!N18,2) + COUNTIF(User_3!N18,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Q18" s="8">
-        <f>COUNTIF(User_1!N18,3) + COUNTIF(User_2!N18,3) + COUNTIF(User_3!N18,3)</f>
-        <v>1</v>
-      </c>
-      <c r="R18" s="10">
-        <f>COUNTIF(User_1!N18,5) + COUNTIF(User_2!N18,5) + COUNTIF(User_3!N18,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <f>COUNTIF(User_1!N18,4) + COUNTIF(User_2!N18,4) + COUNTIF(User_3!N18,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f>AVERAGE(User_1!Q18, User_2!Q18, User_3!Q18)</f>
-        <v>29.653333333333332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="10">
-        <f>COUNTIF(User_1!N19,1) + COUNTIF(User_2!N19,1) + COUNTIF(User_3!N19,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="10">
-        <f>COUNTIF(User_1!N19,0) + COUNTIF(User_2!N19,0) + COUNTIF(User_3!N19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="10">
-        <f>SUM((User_1!N19=1)*(User_1!P19=3)) + SUM((User_2!N19=1)*(User_2!P19=3)) + SUM((User_3!N19=1)*(User_3!P19=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <f>SUM((User_1!N19=1)*(User_1!P19=2)) + SUM((User_2!N19=1)*(User_2!P19=2)) + SUM((User_3!N19=1)*(User_3!P19=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="10">
-        <f>SUM((User_1!N19=1)*(User_1!P19=1)) + SUM((User_2!N19=1)*(User_2!P19=1)) + SUM((User_3!N19=1)*(User_3!P19=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <f>SUM((User_1!N19=0)*(User_1!P19=3)) + SUM((User_2!N19=0)*(User_2!P19=3)) + SUM((User_3!N19=0)*(User_3!P19=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <f>SUM((User_1!N19=0)*(User_1!P19=2)) + SUM((User_2!N19=0)*(User_2!P19=2)) + SUM((User_3!N19=0)*(User_3!P19=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="10">
-        <f>SUM((User_1!N19=0)*(User_1!P19=1)) + SUM((User_2!N19=0)*(User_2!P19=1)) + SUM((User_3!N19=0)*(User_3!P19=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <f>SUM((User_1!N19=2)*(User_1!P19=3)) + SUM((User_2!N19=2)*(User_2!P19=3)) + SUM((User_3!N19=2)*(User_3!P19=3))</f>
-        <v>2</v>
-      </c>
-      <c r="K19" s="10">
-        <f>SUM((User_1!N19=2)*(User_1!P19=2)) + SUM((User_2!N19=2)*(User_2!P19=2)) + SUM((User_3!N19=2)*(User_3!P19=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <f>SUM((User_1!N19=2)*(User_1!P19=1)) + SUM((User_2!N19=2)*(User_2!P19=1)) + SUM((User_3!N19=2)*(User_3!P19=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <f>SUM((User_1!N19=3)*(User_1!P19=3)) + SUM((User_2!N19=3)*(User_2!P19=3)) + SUM((User_3!N19=3)*(User_3!P19=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <f>SUM((User_1!N19=3)*(User_1!P19=2)) + SUM((User_2!N19=3)*(User_2!P19=2)) + SUM((User_3!N19=3)*(User_3!P19=2))</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
-        <f>SUM((User_1!N19=3)*(User_1!P19=1)) + SUM((User_2!N19=3)*(User_2!P19=1)) + SUM((User_3!N19=3)*(User_3!P19=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <f>COUNTIF(User_1!N19,2) + COUNTIF(User_2!N19,2) + COUNTIF(User_3!N19,2)</f>
-        <v>2</v>
-      </c>
-      <c r="Q19" s="8">
-        <f>COUNTIF(User_1!N19,3) + COUNTIF(User_2!N19,3) + COUNTIF(User_3!N19,3)</f>
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
-        <f>COUNTIF(User_1!N19,5) + COUNTIF(User_2!N19,5) + COUNTIF(User_3!N19,5)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <f>COUNTIF(User_1!N19,4) + COUNTIF(User_2!N19,4) + COUNTIF(User_3!N19,4)</f>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f>AVERAGE(User_1!Q19, User_2!Q19, User_3!Q19)</f>
-        <v>29.611666666666665</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <f>COUNTIF(User_1!N20,1) + COUNTIF(User_2!N20,1) + COUNTIF(User_3!N20,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="11">
-        <f>COUNTIF(User_1!N20,0) + COUNTIF(User_2!N20,0) + COUNTIF(User_3!N20,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <f>SUM((User_1!N20=1)*(User_1!P20=3)) + SUM((User_2!N20=1)*(User_2!P20=3)) + SUM((User_3!N20=1)*(User_3!P20=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <f>SUM((User_1!N20=1)*(User_1!P20=2)) + SUM((User_2!N20=1)*(User_2!P20=2)) + SUM((User_3!N20=1)*(User_3!P20=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <f>SUM((User_1!N20=1)*(User_1!P20=1)) + SUM((User_2!N20=1)*(User_2!P20=1)) + SUM((User_3!N20=1)*(User_3!P20=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <f>SUM((User_1!N20=0)*(User_1!P20=3)) + SUM((User_2!N20=0)*(User_2!P20=3)) + SUM((User_3!N20=0)*(User_3!P20=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM((User_1!N20=0)*(User_1!P20=2)) + SUM((User_2!N20=0)*(User_2!P20=2)) + SUM((User_3!N20=0)*(User_3!P20=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <f>SUM((User_1!N20=0)*(User_1!P20=1)) + SUM((User_2!N20=0)*(User_2!P20=1)) + SUM((User_3!N20=0)*(User_3!P20=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <f>SUM((User_1!N20=2)*(User_1!P20=3)) + SUM((User_2!N20=2)*(User_2!P20=3)) + SUM((User_3!N20=2)*(User_3!P20=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <f>SUM((User_1!N20=2)*(User_1!P20=2)) + SUM((User_2!N20=2)*(User_2!P20=2)) + SUM((User_3!N20=2)*(User_3!P20=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="11">
-        <f>SUM((User_1!N20=2)*(User_1!P20=1)) + SUM((User_2!N20=2)*(User_2!P20=1)) + SUM((User_3!N20=2)*(User_3!P20=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
-        <f>SUM((User_1!N20=3)*(User_1!P20=3)) + SUM((User_2!N20=3)*(User_2!P20=3)) + SUM((User_3!N20=3)*(User_3!P20=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <f>SUM((User_1!N20=3)*(User_1!P20=2)) + SUM((User_2!N20=3)*(User_2!P20=2)) + SUM((User_3!N20=3)*(User_3!P20=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <f>SUM((User_1!N20=3)*(User_1!P20=1)) + SUM((User_2!N20=3)*(User_2!P20=1)) + SUM((User_3!N20=3)*(User_3!P20=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <f>COUNTIF(User_1!N20,2) + COUNTIF(User_2!N20,2) + COUNTIF(User_3!N20,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <f>COUNTIF(User_1!N20,3) + COUNTIF(User_2!N20,3) + COUNTIF(User_3!N20,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="12">
-        <f>COUNTIF(User_1!N20,5) + COUNTIF(User_2!N20,5) + COUNTIF(User_3!N20,5)</f>
-        <v>2</v>
-      </c>
-      <c r="S20" s="13">
-        <f>COUNTIF(User_1!N20,4) + COUNTIF(User_2!N20,4) + COUNTIF(User_3!N20,4)</f>
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <f>AVERAGE(User_1!Q20, User_2!Q20, User_3!Q20)</f>
-        <v>7.6686666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <f>COUNTIF(User_1!N21,1) + COUNTIF(User_2!N21,1) + COUNTIF(User_3!N21,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="11">
-        <f>COUNTIF(User_1!N21,0) + COUNTIF(User_2!N21,0) + COUNTIF(User_3!N21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <f>SUM((User_1!N21=1)*(User_1!P21=3)) + SUM((User_2!N21=1)*(User_2!P21=3)) + SUM((User_3!N21=1)*(User_3!P21=3))</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <f>SUM((User_1!N21=1)*(User_1!P21=2)) + SUM((User_2!N21=1)*(User_2!P21=2)) + SUM((User_3!N21=1)*(User_3!P21=2))</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="11">
-        <f>SUM((User_1!N21=1)*(User_1!P21=1)) + SUM((User_2!N21=1)*(User_2!P21=1)) + SUM((User_3!N21=1)*(User_3!P21=1))</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <f>SUM((User_1!N21=0)*(User_1!P21=3)) + SUM((User_2!N21=0)*(User_2!P21=3)) + SUM((User_3!N21=0)*(User_3!P21=3))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <f>SUM((User_1!N21=0)*(User_1!P21=2)) + SUM((User_2!N21=0)*(User_2!P21=2)) + SUM((User_3!N21=0)*(User_3!P21=2))</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <f>SUM((User_1!N21=0)*(User_1!P21=1)) + SUM((User_2!N21=0)*(User_2!P21=1)) + SUM((User_3!N21=0)*(User_3!P21=1))</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <f>SUM((User_1!N21=2)*(User_1!P21=3)) + SUM((User_2!N21=2)*(User_2!P21=3)) + SUM((User_3!N21=2)*(User_3!P21=3))</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <f>SUM((User_1!N21=2)*(User_1!P21=2)) + SUM((User_2!N21=2)*(User_2!P21=2)) + SUM((User_3!N21=2)*(User_3!P21=2))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <f>SUM((User_1!N21=2)*(User_1!P21=1)) + SUM((User_2!N21=2)*(User_2!P21=1)) + SUM((User_3!N21=2)*(User_3!P21=1))</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <f>SUM((User_1!N21=3)*(User_1!P21=3)) + SUM((User_2!N21=3)*(User_2!P21=3)) + SUM((User_3!N21=3)*(User_3!P21=3))</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <f>SUM((User_1!N21=3)*(User_1!P21=2)) + SUM((User_2!N21=3)*(User_2!P21=2)) + SUM((User_3!N21=3)*(User_3!P21=2))</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <f>SUM((User_1!N21=3)*(User_1!P21=1)) + SUM((User_2!N21=3)*(User_2!P21=1)) + SUM((User_3!N21=3)*(User_3!P21=1))</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <f>COUNTIF(User_1!N21,2) + COUNTIF(User_2!N21,2) + COUNTIF(User_3!N21,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
-        <f>COUNTIF(User_1!N21,3) + COUNTIF(User_2!N21,3) + COUNTIF(User_3!N21,3)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="12">
-        <f>COUNTIF(User_1!N21,5) + COUNTIF(User_2!N21,5) + COUNTIF(User_3!N21,5)</f>
-        <v>2</v>
-      </c>
-      <c r="S21" s="13">
-        <f>COUNTIF(User_1!N21,4) + COUNTIF(User_2!N21,4) + COUNTIF(User_3!N21,4)</f>
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <f>AVERAGE(User_1!Q21, User_2!Q21, User_3!Q21)</f>
-        <v>2.9589999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/notebook/metrics/resultados_predicciones.xlsx
+++ b/notebook/metrics/resultados_predicciones.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian\survey-xai-app\notebook\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690FE0B-BE1A-4CBE-A98B-E1AFE000BDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CD260D-C8A9-4B56-9380-E38296139FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="654" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="observation_selection" sheetId="1" r:id="rId1"/>
     <sheet name="test_1" sheetId="6" r:id="rId2"/>
-    <sheet name="test_2" sheetId="7" r:id="rId3"/>
-    <sheet name="test_3" sheetId="8" r:id="rId4"/>
+    <sheet name="test_2" sheetId="8" r:id="rId3"/>
+    <sheet name="test_3" sheetId="7" r:id="rId4"/>
     <sheet name="User_1" sheetId="14" r:id="rId5"/>
     <sheet name="User_2" sheetId="16" r:id="rId6"/>
     <sheet name="User_3" sheetId="15" r:id="rId7"/>
@@ -8231,7 +8231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712D46CC-0000-4508-8F3F-D1ED8595745D}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
@@ -10042,260 +10042,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2F736-9A8B-45CF-89D9-B3B319DDCB1E}">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD366E7E-6215-4587-9BF5-6D23A24A2B4B}">
   <dimension ref="A1:C22"/>
   <sheetViews>
@@ -10545,6 +10291,260 @@
         <v>105</v>
       </c>
       <c r="C22" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2F736-9A8B-45CF-89D9-B3B319DDCB1E}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
